--- a/Filtered_By_Region/CAR/CAR_HEALTH.xlsx
+++ b/Filtered_By_Region/CAR/CAR_HEALTH.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU129"/>
+  <dimension ref="A1:AY129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,6 +674,26 @@
           <t>Unnamed: 46</t>
         </is>
       </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -711,7 +732,6 @@
       <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
           <t>Construction of 1 storey 7m x 9m Medical and Denatl Facilities</t>
@@ -720,7 +740,6 @@
       <c r="K2" t="n">
         <v>2800000</v>
       </c>
-      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>2777723.92</v>
       </c>
@@ -782,7 +801,6 @@
           <t>SEMBRI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
@@ -798,28 +816,15 @@
       <c r="AE2" t="n">
         <v>1</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="n">
         <v>1</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
       </c>
-      <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="n">
         <v>11.24</v>
       </c>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -858,7 +863,6 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
           <t>Construction of Handwashing Facility,Comfort Room, and clinic</t>
@@ -867,7 +871,6 @@
       <c r="K3" t="n">
         <v>5079441.86</v>
       </c>
-      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>5023658.56</v>
       </c>
@@ -879,10 +882,6 @@
       <c r="O3" t="n">
         <v>0</v>
       </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
           <t>September 17,2024</t>
@@ -903,13 +902,11 @@
           <t>October 28,2024</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr">
         <is>
           <t>HighLand Construction Services</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
         <v>0</v>
       </c>
@@ -925,26 +922,12 @@
       <c r="AE3" t="n">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="n">
         <v>0</v>
       </c>
       <c r="AL3" t="n">
         <v>0</v>
       </c>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -983,7 +966,6 @@
       <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>Construction of Clinic, Comfort Room, Group Handwashing Facility</t>
@@ -992,7 +974,6 @@
       <c r="K4" t="n">
         <v>4805722.03</v>
       </c>
-      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>4403550.47</v>
       </c>
@@ -1009,7 +990,6 @@
           <t>June 11, 2025</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
           <t>SHFP-2024-01</t>
@@ -1050,7 +1030,6 @@
           <t>CE-CE CONSTRUCTION SERVICES</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
         <v>0</v>
       </c>
@@ -1066,26 +1045,12 @@
       <c r="AE4" t="n">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="n">
         <v>0.55</v>
       </c>
       <c r="AL4" t="n">
         <v>0.2999999999999999</v>
       </c>
-      <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1124,7 +1089,6 @@
       <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
           <t>Construction of School Clinic, Toilet, Water System &amp; Group Handwashing Facility</t>
@@ -1133,7 +1097,6 @@
       <c r="K5" t="n">
         <v>6956039.99</v>
       </c>
-      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>6250490.52</v>
       </c>
@@ -1155,7 +1118,6 @@
           <t>January 22,2025</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr">
         <is>
           <t>2024-01</t>
@@ -1191,7 +1153,6 @@
           <t>Habiling Construction</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
@@ -1207,28 +1168,15 @@
       <c r="AE5" t="n">
         <v>1</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="n">
         <v>1</v>
       </c>
       <c r="AL5" t="n">
         <v>0</v>
       </c>
-      <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="n">
         <v>2.25</v>
       </c>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1267,7 +1215,6 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -1276,7 +1223,6 @@
       <c r="K6" t="n">
         <v>4458237.06</v>
       </c>
-      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>4285187.15</v>
       </c>
@@ -1293,7 +1239,6 @@
           <t>November 12, 2024</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
           <t>SCHOOL CLINIC 2024-CAR-KALINGA-001</t>
@@ -1334,7 +1279,6 @@
           <t>EDEJUN CONSTRUCTION SERVICES</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
         <v>0</v>
       </c>
@@ -1350,26 +1294,12 @@
       <c r="AE6" t="n">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="n">
         <v>0.85</v>
       </c>
       <c r="AL6" t="n">
         <v>0</v>
       </c>
-      <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
-      <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1408,7 +1338,6 @@
       <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
           <t xml:space="preserve">Construction of School Clinic, Water and Sanitation Facilities - 3-Seater with Overhead Water Tank, Group Handwashing Facility and Water System (Water Source at Higher Elevation than School Building) </t>
@@ -1417,7 +1346,6 @@
       <c r="K7" t="n">
         <v>21529337.31</v>
       </c>
-      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>21313820.23</v>
       </c>
@@ -1434,7 +1362,6 @@
           <t>March 2, 2025</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
         <is>
           <t>INFRA 2023-007</t>
@@ -1495,26 +1422,12 @@
       <c r="AE7" t="n">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="n">
         <v>0.83</v>
       </c>
       <c r="AL7" t="n">
         <v>0.1000000000000001</v>
       </c>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
-      <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1553,7 +1466,6 @@
       <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -1562,7 +1474,6 @@
       <c r="K8" t="n">
         <v>4565251.4</v>
       </c>
-      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>4299998.99</v>
       </c>
@@ -1624,7 +1535,6 @@
           <t>Northpine Construction</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
         <v>0</v>
       </c>
@@ -1640,28 +1550,15 @@
       <c r="AE8" t="n">
         <v>1</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="n">
         <v>1</v>
       </c>
       <c r="AL8" t="n">
         <v>0</v>
       </c>
-      <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="n">
         <v>11.24</v>
       </c>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1725,23 +1622,14 @@
       <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P9" s="2" t="n">
+      <c r="P9" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
           <t>BAJE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="n">
         <v>0</v>
       </c>
@@ -1778,7 +1666,6 @@
       <c r="AL9" t="n">
         <v>0</v>
       </c>
-      <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="n">
         <v>2</v>
       </c>
@@ -1870,23 +1757,14 @@
       <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P10" s="2" t="n">
+      <c r="P10" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
           <t>BAJE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
         <v>0</v>
       </c>
@@ -1923,7 +1801,6 @@
       <c r="AL10" t="n">
         <v>0</v>
       </c>
-      <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="n">
         <v>2</v>
       </c>
@@ -2015,23 +1892,14 @@
       <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="P11" s="2" t="n">
+      <c r="P11" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr">
         <is>
           <t>BAJE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="n">
         <v>0</v>
       </c>
@@ -2068,7 +1936,6 @@
       <c r="AL11" t="n">
         <v>0</v>
       </c>
-      <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="n">
         <v>2</v>
       </c>
@@ -2160,23 +2027,14 @@
       <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P12" s="2" t="n">
+      <c r="P12" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr">
         <is>
           <t>BAJE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
         <v>0</v>
       </c>
@@ -2213,7 +2071,6 @@
       <c r="AL12" t="n">
         <v>0</v>
       </c>
-      <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="n">
         <v>2</v>
       </c>
@@ -2305,23 +2162,14 @@
       <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P13" s="2" t="n">
+      <c r="P13" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr">
         <is>
           <t>BAJE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
         <v>0</v>
       </c>
@@ -2358,7 +2206,6 @@
       <c r="AL13" t="n">
         <v>0</v>
       </c>
-      <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="n">
         <v>2</v>
       </c>
@@ -2450,23 +2297,14 @@
       <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="P14" s="2" t="n">
+      <c r="P14" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr">
         <is>
           <t>BAJE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="n">
         <v>0</v>
       </c>
@@ -2503,7 +2341,6 @@
       <c r="AL14" t="n">
         <v>0</v>
       </c>
-      <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="n">
         <v>2</v>
       </c>
@@ -2595,23 +2432,14 @@
       <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="P15" s="2" t="n">
+      <c r="P15" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="n">
         <v>0</v>
       </c>
@@ -2648,7 +2476,6 @@
       <c r="AL15" t="n">
         <v>0</v>
       </c>
-      <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="n">
         <v>2</v>
       </c>
@@ -2740,23 +2567,14 @@
       <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P16" s="2" t="n">
+      <c r="P16" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="n">
         <v>0</v>
       </c>
@@ -2793,7 +2611,6 @@
       <c r="AL16" t="n">
         <v>0</v>
       </c>
-      <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="n">
         <v>2</v>
       </c>
@@ -2885,23 +2702,14 @@
       <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P17" s="2" t="n">
+      <c r="P17" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="n">
         <v>0</v>
       </c>
@@ -2938,7 +2746,6 @@
       <c r="AL17" t="n">
         <v>0</v>
       </c>
-      <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="n">
         <v>2</v>
       </c>
@@ -3030,23 +2837,14 @@
       <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P18" s="2" t="n">
+      <c r="P18" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="n">
         <v>0</v>
       </c>
@@ -3083,7 +2881,6 @@
       <c r="AL18" t="n">
         <v>0</v>
       </c>
-      <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="n">
         <v>2</v>
       </c>
@@ -3175,23 +2972,14 @@
       <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="P19" s="2" t="n">
+      <c r="P19" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="n">
         <v>0</v>
       </c>
@@ -3228,7 +3016,6 @@
       <c r="AL19" t="n">
         <v>0</v>
       </c>
-      <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="n">
         <v>2</v>
       </c>
@@ -3320,23 +3107,14 @@
       <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="P20" s="2" t="n">
+      <c r="P20" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr">
         <is>
           <t>BAJE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="n">
         <v>0</v>
       </c>
@@ -3373,7 +3151,6 @@
       <c r="AL20" t="n">
         <v>0</v>
       </c>
-      <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="n">
         <v>2</v>
       </c>
@@ -3465,23 +3242,14 @@
       <c r="O21" t="n">
         <v>1</v>
       </c>
-      <c r="P21" s="2" t="n">
+      <c r="P21" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr">
         <is>
           <t>BAJE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="n">
         <v>0</v>
       </c>
@@ -3518,7 +3286,6 @@
       <c r="AL21" t="n">
         <v>0</v>
       </c>
-      <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="n">
         <v>2</v>
       </c>
@@ -3610,23 +3377,14 @@
       <c r="O22" t="n">
         <v>1</v>
       </c>
-      <c r="P22" s="2" t="n">
+      <c r="P22" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr">
         <is>
           <t>BAJE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="n">
         <v>0</v>
       </c>
@@ -3663,7 +3421,6 @@
       <c r="AL22" t="n">
         <v>0</v>
       </c>
-      <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="n">
         <v>2</v>
       </c>
@@ -3755,23 +3512,14 @@
       <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P23" s="2" t="n">
+      <c r="P23" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr">
         <is>
           <t>BAJE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="n">
         <v>0</v>
       </c>
@@ -3808,7 +3556,6 @@
       <c r="AL23" t="n">
         <v>0</v>
       </c>
-      <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="n">
         <v>2</v>
       </c>
@@ -3900,23 +3647,14 @@
       <c r="O24" t="n">
         <v>1</v>
       </c>
-      <c r="P24" s="2" t="n">
+      <c r="P24" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="n">
         <v>0</v>
       </c>
@@ -3953,7 +3691,6 @@
       <c r="AL24" t="n">
         <v>0</v>
       </c>
-      <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="n">
         <v>2</v>
       </c>
@@ -4045,23 +3782,14 @@
       <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="P25" s="2" t="n">
+      <c r="P25" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="n">
         <v>0</v>
       </c>
@@ -4098,7 +3826,6 @@
       <c r="AL25" t="n">
         <v>0</v>
       </c>
-      <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="n">
         <v>2</v>
       </c>
@@ -4190,23 +3917,14 @@
       <c r="O26" t="n">
         <v>1</v>
       </c>
-      <c r="P26" s="2" t="n">
+      <c r="P26" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="n">
         <v>0</v>
       </c>
@@ -4243,7 +3961,6 @@
       <c r="AL26" t="n">
         <v>0</v>
       </c>
-      <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="n">
         <v>2</v>
       </c>
@@ -4335,23 +4052,14 @@
       <c r="O27" t="n">
         <v>1</v>
       </c>
-      <c r="P27" s="2" t="n">
+      <c r="P27" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="n">
         <v>0</v>
       </c>
@@ -4388,7 +4096,6 @@
       <c r="AL27" t="n">
         <v>0</v>
       </c>
-      <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="n">
         <v>2</v>
       </c>
@@ -4480,23 +4187,14 @@
       <c r="O28" t="n">
         <v>1</v>
       </c>
-      <c r="P28" s="2" t="n">
+      <c r="P28" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="n">
         <v>0</v>
       </c>
@@ -4533,7 +4231,6 @@
       <c r="AL28" t="n">
         <v>0</v>
       </c>
-      <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="n">
         <v>2</v>
       </c>
@@ -4625,23 +4322,14 @@
       <c r="O29" t="n">
         <v>1</v>
       </c>
-      <c r="P29" s="2" t="n">
+      <c r="P29" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="n">
         <v>0</v>
       </c>
@@ -4678,7 +4366,6 @@
       <c r="AL29" t="n">
         <v>0</v>
       </c>
-      <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="n">
         <v>2</v>
       </c>
@@ -4770,23 +4457,14 @@
       <c r="O30" t="n">
         <v>1</v>
       </c>
-      <c r="P30" s="2" t="n">
+      <c r="P30" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="n">
         <v>0</v>
       </c>
@@ -4823,7 +4501,6 @@
       <c r="AL30" t="n">
         <v>0</v>
       </c>
-      <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="n">
         <v>2</v>
       </c>
@@ -4915,23 +4592,14 @@
       <c r="O31" t="n">
         <v>1</v>
       </c>
-      <c r="P31" s="2" t="n">
+      <c r="P31" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="n">
         <v>0</v>
       </c>
@@ -4968,7 +4636,6 @@
       <c r="AL31" t="n">
         <v>0</v>
       </c>
-      <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="n">
         <v>2</v>
       </c>
@@ -5060,23 +4727,14 @@
       <c r="O32" t="n">
         <v>1</v>
       </c>
-      <c r="P32" s="2" t="n">
+      <c r="P32" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="n">
         <v>0</v>
       </c>
@@ -5113,7 +4771,6 @@
       <c r="AL32" t="n">
         <v>0</v>
       </c>
-      <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="n">
         <v>2</v>
       </c>
@@ -5205,23 +4862,14 @@
       <c r="O33" t="n">
         <v>1</v>
       </c>
-      <c r="P33" s="2" t="n">
+      <c r="P33" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="n">
         <v>0</v>
       </c>
@@ -5258,7 +4906,6 @@
       <c r="AL33" t="n">
         <v>0</v>
       </c>
-      <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="n">
         <v>2</v>
       </c>
@@ -5350,23 +4997,14 @@
       <c r="O34" t="n">
         <v>1</v>
       </c>
-      <c r="P34" s="2" t="n">
+      <c r="P34" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="n">
         <v>0</v>
       </c>
@@ -5403,7 +5041,6 @@
       <c r="AL34" t="n">
         <v>0</v>
       </c>
-      <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="n">
         <v>2</v>
       </c>
@@ -5495,23 +5132,14 @@
       <c r="O35" t="n">
         <v>1</v>
       </c>
-      <c r="P35" s="2" t="n">
+      <c r="P35" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="n">
         <v>0</v>
       </c>
@@ -5548,7 +5176,6 @@
       <c r="AL35" t="n">
         <v>0</v>
       </c>
-      <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="n">
         <v>2</v>
       </c>
@@ -5610,7 +5237,6 @@
       <c r="G36" t="n">
         <v>0</v>
       </c>
-      <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
         <v>1</v>
       </c>
@@ -5638,23 +5264,14 @@
       <c r="O36" t="n">
         <v>1</v>
       </c>
-      <c r="P36" s="2" t="n">
+      <c r="P36" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="n">
         <v>0</v>
       </c>
@@ -5691,7 +5308,6 @@
       <c r="AL36" t="n">
         <v>0</v>
       </c>
-      <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="n">
         <v>2</v>
       </c>
@@ -5783,23 +5399,14 @@
       <c r="O37" t="n">
         <v>1</v>
       </c>
-      <c r="P37" s="2" t="n">
+      <c r="P37" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="n">
         <v>0</v>
       </c>
@@ -5836,7 +5443,6 @@
       <c r="AL37" t="n">
         <v>0</v>
       </c>
-      <c r="AM37" t="inlineStr"/>
       <c r="AN37" t="n">
         <v>2</v>
       </c>
@@ -5928,23 +5534,14 @@
       <c r="O38" t="n">
         <v>1</v>
       </c>
-      <c r="P38" s="2" t="n">
+      <c r="P38" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="n">
         <v>0</v>
       </c>
@@ -5981,7 +5578,6 @@
       <c r="AL38" t="n">
         <v>0</v>
       </c>
-      <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="n">
         <v>2</v>
       </c>
@@ -6073,23 +5669,14 @@
       <c r="O39" t="n">
         <v>1</v>
       </c>
-      <c r="P39" s="2" t="n">
+      <c r="P39" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="n">
         <v>0</v>
       </c>
@@ -6126,7 +5713,6 @@
       <c r="AL39" t="n">
         <v>0</v>
       </c>
-      <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="n">
         <v>2</v>
       </c>
@@ -6218,23 +5804,14 @@
       <c r="O40" t="n">
         <v>1</v>
       </c>
-      <c r="P40" s="2" t="n">
+      <c r="P40" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="n">
         <v>0</v>
       </c>
@@ -6271,7 +5848,6 @@
       <c r="AL40" t="n">
         <v>0</v>
       </c>
-      <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="n">
         <v>2</v>
       </c>
@@ -6333,7 +5909,6 @@
       <c r="G41" t="n">
         <v>0</v>
       </c>
-      <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
         <v>1</v>
       </c>
@@ -6361,23 +5936,14 @@
       <c r="O41" t="n">
         <v>1</v>
       </c>
-      <c r="P41" s="2" t="n">
+      <c r="P41" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="n">
         <v>0</v>
       </c>
@@ -6414,7 +5980,6 @@
       <c r="AL41" t="n">
         <v>0</v>
       </c>
-      <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="n">
         <v>2</v>
       </c>
@@ -6506,23 +6071,14 @@
       <c r="O42" t="n">
         <v>1</v>
       </c>
-      <c r="P42" s="2" t="n">
+      <c r="P42" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="n">
         <v>0</v>
       </c>
@@ -6559,7 +6115,6 @@
       <c r="AL42" t="n">
         <v>0</v>
       </c>
-      <c r="AM42" t="inlineStr"/>
       <c r="AN42" t="n">
         <v>2</v>
       </c>
@@ -6651,23 +6206,14 @@
       <c r="O43" t="n">
         <v>1</v>
       </c>
-      <c r="P43" s="2" t="n">
+      <c r="P43" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="n">
         <v>0</v>
       </c>
@@ -6704,7 +6250,6 @@
       <c r="AL43" t="n">
         <v>0</v>
       </c>
-      <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="n">
         <v>2</v>
       </c>
@@ -6796,23 +6341,14 @@
       <c r="O44" t="n">
         <v>1</v>
       </c>
-      <c r="P44" s="2" t="n">
+      <c r="P44" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="n">
         <v>0</v>
       </c>
@@ -6849,7 +6385,6 @@
       <c r="AL44" t="n">
         <v>0</v>
       </c>
-      <c r="AM44" t="inlineStr"/>
       <c r="AN44" t="n">
         <v>2</v>
       </c>
@@ -6941,23 +6476,14 @@
       <c r="O45" t="n">
         <v>1</v>
       </c>
-      <c r="P45" s="2" t="n">
+      <c r="P45" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="n">
         <v>0</v>
       </c>
@@ -6994,7 +6520,6 @@
       <c r="AL45" t="n">
         <v>0</v>
       </c>
-      <c r="AM45" t="inlineStr"/>
       <c r="AN45" t="n">
         <v>2</v>
       </c>
@@ -7086,23 +6611,14 @@
       <c r="O46" t="n">
         <v>1</v>
       </c>
-      <c r="P46" s="2" t="n">
+      <c r="P46" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="n">
         <v>0</v>
       </c>
@@ -7139,7 +6655,6 @@
       <c r="AL46" t="n">
         <v>0</v>
       </c>
-      <c r="AM46" t="inlineStr"/>
       <c r="AN46" t="n">
         <v>2</v>
       </c>
@@ -7238,7 +6753,7 @@
           <t>12/29/2022</t>
         </is>
       </c>
-      <c r="Q47" s="2" t="n">
+      <c r="Q47" s="3" t="n">
         <v>44907</v>
       </c>
       <c r="R47" t="inlineStr">
@@ -7281,7 +6796,6 @@
           <t>PBAJ CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="n">
         <v>0</v>
       </c>
@@ -7318,8 +6832,6 @@
       <c r="AL47" t="n">
         <v>0</v>
       </c>
-      <c r="AM47" t="inlineStr"/>
-      <c r="AN47" t="inlineStr"/>
       <c r="AO47" t="n">
         <v>0</v>
       </c>
@@ -7415,7 +6927,7 @@
           <t>12/29/2022</t>
         </is>
       </c>
-      <c r="Q48" s="2" t="n">
+      <c r="Q48" s="3" t="n">
         <v>44722</v>
       </c>
       <c r="R48" t="inlineStr">
@@ -7458,7 +6970,6 @@
           <t>PBAJ CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="n">
         <v>0</v>
       </c>
@@ -7495,8 +7006,6 @@
       <c r="AL48" t="n">
         <v>0</v>
       </c>
-      <c r="AM48" t="inlineStr"/>
-      <c r="AN48" t="inlineStr"/>
       <c r="AO48" t="n">
         <v>0</v>
       </c>
@@ -7592,7 +7101,7 @@
           <t>12/29/2022</t>
         </is>
       </c>
-      <c r="Q49" s="2" t="n">
+      <c r="Q49" s="3" t="n">
         <v>44907</v>
       </c>
       <c r="R49" t="inlineStr">
@@ -7635,7 +7144,6 @@
           <t>PBAJ CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="n">
         <v>0</v>
       </c>
@@ -7672,8 +7180,6 @@
       <c r="AL49" t="n">
         <v>0</v>
       </c>
-      <c r="AM49" t="inlineStr"/>
-      <c r="AN49" t="inlineStr"/>
       <c r="AO49" t="n">
         <v>0</v>
       </c>
@@ -7769,7 +7275,7 @@
           <t>12/29/2022</t>
         </is>
       </c>
-      <c r="Q50" s="2" t="n">
+      <c r="Q50" s="3" t="n">
         <v>44907</v>
       </c>
       <c r="R50" t="inlineStr">
@@ -7812,7 +7318,6 @@
           <t>PBAJ CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="n">
         <v>0</v>
       </c>
@@ -7849,8 +7354,6 @@
       <c r="AL50" t="n">
         <v>0</v>
       </c>
-      <c r="AM50" t="inlineStr"/>
-      <c r="AN50" t="inlineStr"/>
       <c r="AO50" t="n">
         <v>0</v>
       </c>
@@ -7946,7 +7449,7 @@
           <t>12/29/2022</t>
         </is>
       </c>
-      <c r="Q51" s="2" t="n">
+      <c r="Q51" s="3" t="n">
         <v>44691</v>
       </c>
       <c r="R51" t="inlineStr">
@@ -7989,7 +7492,6 @@
           <t>PBAJ CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="n">
         <v>0</v>
       </c>
@@ -8026,8 +7528,6 @@
       <c r="AL51" t="n">
         <v>0</v>
       </c>
-      <c r="AM51" t="inlineStr"/>
-      <c r="AN51" t="inlineStr"/>
       <c r="AO51" t="n">
         <v>0</v>
       </c>
@@ -8123,7 +7623,7 @@
           <t>12/29/2022</t>
         </is>
       </c>
-      <c r="Q52" s="2" t="n">
+      <c r="Q52" s="3" t="n">
         <v>44691</v>
       </c>
       <c r="R52" t="inlineStr">
@@ -8166,7 +7666,6 @@
           <t>PBAJ CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="n">
         <v>0</v>
       </c>
@@ -8203,8 +7702,6 @@
       <c r="AL52" t="n">
         <v>0</v>
       </c>
-      <c r="AM52" t="inlineStr"/>
-      <c r="AN52" t="inlineStr"/>
       <c r="AO52" t="n">
         <v>0</v>
       </c>
@@ -8300,7 +7797,7 @@
           <t>12/29/2022</t>
         </is>
       </c>
-      <c r="Q53" s="2" t="n">
+      <c r="Q53" s="3" t="n">
         <v>44907</v>
       </c>
       <c r="R53" t="inlineStr">
@@ -8343,7 +7840,6 @@
           <t>PBAJ CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="n">
         <v>0</v>
       </c>
@@ -8380,8 +7876,6 @@
       <c r="AL53" t="n">
         <v>0</v>
       </c>
-      <c r="AM53" t="inlineStr"/>
-      <c r="AN53" t="inlineStr"/>
       <c r="AO53" t="n">
         <v>0</v>
       </c>
@@ -8477,7 +7971,7 @@
           <t>12/29/2022</t>
         </is>
       </c>
-      <c r="Q54" s="2" t="n">
+      <c r="Q54" s="3" t="n">
         <v>44907</v>
       </c>
       <c r="R54" t="inlineStr">
@@ -8520,7 +8014,6 @@
           <t>PBAJ CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="n">
         <v>0</v>
       </c>
@@ -8557,8 +8050,6 @@
       <c r="AL54" t="n">
         <v>0</v>
       </c>
-      <c r="AM54" t="inlineStr"/>
-      <c r="AN54" t="inlineStr"/>
       <c r="AO54" t="n">
         <v>0</v>
       </c>
@@ -8654,7 +8145,7 @@
           <t>12/29/2022</t>
         </is>
       </c>
-      <c r="Q55" s="2" t="n">
+      <c r="Q55" s="3" t="n">
         <v>44907</v>
       </c>
       <c r="R55" t="inlineStr">
@@ -8697,7 +8188,6 @@
           <t>PBAJ CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="n">
         <v>0</v>
       </c>
@@ -8734,8 +8224,6 @@
       <c r="AL55" t="n">
         <v>0</v>
       </c>
-      <c r="AM55" t="inlineStr"/>
-      <c r="AN55" t="inlineStr"/>
       <c r="AO55" t="n">
         <v>0</v>
       </c>
@@ -8831,7 +8319,7 @@
           <t>12/29/2022</t>
         </is>
       </c>
-      <c r="Q56" s="2" t="n">
+      <c r="Q56" s="3" t="n">
         <v>44691</v>
       </c>
       <c r="R56" t="inlineStr">
@@ -8874,7 +8362,6 @@
           <t>PBAJ CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="n">
         <v>0</v>
       </c>
@@ -8911,8 +8398,6 @@
       <c r="AL56" t="n">
         <v>0</v>
       </c>
-      <c r="AM56" t="inlineStr"/>
-      <c r="AN56" t="inlineStr"/>
       <c r="AO56" t="n">
         <v>0</v>
       </c>
@@ -9008,7 +8493,7 @@
           <t>12/29/2022</t>
         </is>
       </c>
-      <c r="Q57" s="2" t="n">
+      <c r="Q57" s="3" t="n">
         <v>44907</v>
       </c>
       <c r="R57" t="inlineStr">
@@ -9051,7 +8536,6 @@
           <t>PBAJ CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="n">
         <v>0</v>
       </c>
@@ -9088,8 +8572,6 @@
       <c r="AL57" t="n">
         <v>0</v>
       </c>
-      <c r="AM57" t="inlineStr"/>
-      <c r="AN57" t="inlineStr"/>
       <c r="AO57" t="n">
         <v>0</v>
       </c>
@@ -9190,25 +8672,24 @@
           <t>October 15, 2022</t>
         </is>
       </c>
-      <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr">
         <is>
           <t>2022-04</t>
         </is>
       </c>
-      <c r="T58" s="2" t="n">
+      <c r="T58" s="3" t="n">
         <v>44683</v>
       </c>
-      <c r="U58" s="2" t="n">
+      <c r="U58" s="3" t="n">
         <v>44693</v>
       </c>
-      <c r="V58" s="2" t="n">
+      <c r="V58" s="3" t="n">
         <v>44704</v>
       </c>
-      <c r="W58" s="2" t="n">
+      <c r="W58" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X58" s="2" t="n">
+      <c r="X58" s="3" t="n">
         <v>44760</v>
       </c>
       <c r="Y58" t="inlineStr">
@@ -9216,7 +8697,6 @@
           <t>MAGNUS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="n">
         <v>0</v>
       </c>
@@ -9253,8 +8733,6 @@
       <c r="AL58" t="n">
         <v>0</v>
       </c>
-      <c r="AM58" t="inlineStr"/>
-      <c r="AN58" t="inlineStr"/>
       <c r="AO58" t="n">
         <v>0</v>
       </c>
@@ -9275,7 +8753,6 @@
           <t>Construction of Water System</t>
         </is>
       </c>
-      <c r="AU58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -9346,28 +8823,27 @@
           <t>December 5, 2022</t>
         </is>
       </c>
-      <c r="Q59" s="2" t="n">
+      <c r="Q59" s="3" t="n">
         <v>44915</v>
       </c>
-      <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr">
         <is>
           <t>2022-07</t>
         </is>
       </c>
-      <c r="T59" s="2" t="n">
+      <c r="T59" s="3" t="n">
         <v>44735</v>
       </c>
-      <c r="U59" s="2" t="n">
+      <c r="U59" s="3" t="n">
         <v>44718</v>
       </c>
-      <c r="V59" s="2" t="n">
+      <c r="V59" s="3" t="n">
         <v>44746</v>
       </c>
-      <c r="W59" s="2" t="n">
+      <c r="W59" s="3" t="n">
         <v>45545</v>
       </c>
-      <c r="X59" s="2" t="n">
+      <c r="X59" s="3" t="n">
         <v>44834</v>
       </c>
       <c r="Y59" t="inlineStr">
@@ -9375,7 +8851,6 @@
           <t>SAKI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="n">
         <v>0</v>
       </c>
@@ -9412,7 +8887,6 @@
       <c r="AL59" t="n">
         <v>0</v>
       </c>
-      <c r="AM59" t="inlineStr"/>
       <c r="AN59" t="n">
         <v>4</v>
       </c>
@@ -9516,25 +8990,24 @@
           <t>March 15, 2023</t>
         </is>
       </c>
-      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr">
         <is>
           <t>2022-08</t>
         </is>
       </c>
-      <c r="T60" s="2" t="n">
+      <c r="T60" s="3" t="n">
         <v>44735</v>
       </c>
-      <c r="U60" s="2" t="n">
+      <c r="U60" s="3" t="n">
         <v>44718</v>
       </c>
-      <c r="V60" s="2" t="n">
+      <c r="V60" s="3" t="n">
         <v>44746</v>
       </c>
-      <c r="W60" s="2" t="n">
+      <c r="W60" s="3" t="n">
         <v>45545</v>
       </c>
-      <c r="X60" s="2" t="n">
+      <c r="X60" s="3" t="n">
         <v>44834</v>
       </c>
       <c r="Y60" t="inlineStr">
@@ -9542,7 +9015,6 @@
           <t>SAKI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="n">
         <v>0</v>
       </c>
@@ -9579,8 +9051,6 @@
       <c r="AL60" t="n">
         <v>0</v>
       </c>
-      <c r="AM60" t="inlineStr"/>
-      <c r="AN60" t="inlineStr"/>
       <c r="AO60" t="n">
         <v>0</v>
       </c>
@@ -9676,28 +9146,27 @@
           <t>February 3, 2023</t>
         </is>
       </c>
-      <c r="Q61" s="2" t="n">
+      <c r="Q61" s="3" t="n">
         <v>45384</v>
       </c>
-      <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr">
         <is>
           <t>2022-09</t>
         </is>
       </c>
-      <c r="T61" s="2" t="n">
+      <c r="T61" s="3" t="n">
         <v>44735</v>
       </c>
-      <c r="U61" s="2" t="n">
+      <c r="U61" s="3" t="n">
         <v>44718</v>
       </c>
-      <c r="V61" s="2" t="n">
+      <c r="V61" s="3" t="n">
         <v>44746</v>
       </c>
-      <c r="W61" s="2" t="n">
+      <c r="W61" s="3" t="n">
         <v>45545</v>
       </c>
-      <c r="X61" s="2" t="n">
+      <c r="X61" s="3" t="n">
         <v>44834</v>
       </c>
       <c r="Y61" t="inlineStr">
@@ -9705,7 +9174,6 @@
           <t>SAKI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="n">
         <v>0</v>
       </c>
@@ -9742,8 +9210,6 @@
       <c r="AL61" t="n">
         <v>0</v>
       </c>
-      <c r="AM61" t="inlineStr"/>
-      <c r="AN61" t="inlineStr"/>
       <c r="AO61" t="n">
         <v>0</v>
       </c>
@@ -9839,28 +9305,27 @@
           <t>December 10, 2022</t>
         </is>
       </c>
-      <c r="Q62" s="2" t="n">
+      <c r="Q62" s="3" t="n">
         <v>44967</v>
       </c>
-      <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr">
         <is>
           <t>2022-10</t>
         </is>
       </c>
-      <c r="T62" s="2" t="n">
+      <c r="T62" s="3" t="n">
         <v>44735</v>
       </c>
-      <c r="U62" s="2" t="n">
+      <c r="U62" s="3" t="n">
         <v>44718</v>
       </c>
-      <c r="V62" s="2" t="n">
+      <c r="V62" s="3" t="n">
         <v>44742</v>
       </c>
-      <c r="W62" s="2" t="n">
+      <c r="W62" s="3" t="n">
         <v>44825</v>
       </c>
-      <c r="X62" s="2" t="n">
+      <c r="X62" s="3" t="n">
         <v>44840</v>
       </c>
       <c r="Y62" t="inlineStr">
@@ -9868,7 +9333,6 @@
           <t>I.N.T CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="n">
         <v>0</v>
       </c>
@@ -9905,7 +9369,6 @@
       <c r="AL62" t="n">
         <v>0</v>
       </c>
-      <c r="AM62" t="inlineStr"/>
       <c r="AN62" t="n">
         <v>4</v>
       </c>
@@ -10004,28 +9467,27 @@
           <t>December 25,2022</t>
         </is>
       </c>
-      <c r="Q63" s="2" t="n">
+      <c r="Q63" s="3" t="n">
         <v>45166</v>
       </c>
-      <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr">
         <is>
           <t>2022-11</t>
         </is>
       </c>
-      <c r="T63" s="2" t="n">
+      <c r="T63" s="3" t="n">
         <v>44735</v>
       </c>
-      <c r="U63" s="2" t="n">
+      <c r="U63" s="3" t="n">
         <v>44718</v>
       </c>
-      <c r="V63" s="2" t="n">
+      <c r="V63" s="3" t="n">
         <v>44742</v>
       </c>
-      <c r="W63" s="2" t="n">
+      <c r="W63" s="3" t="n">
         <v>44825</v>
       </c>
-      <c r="X63" s="2" t="n">
+      <c r="X63" s="3" t="n">
         <v>44840</v>
       </c>
       <c r="Y63" t="inlineStr">
@@ -10033,7 +9495,6 @@
           <t>I.N.T CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z63" t="inlineStr"/>
       <c r="AA63" t="n">
         <v>0</v>
       </c>
@@ -10070,7 +9531,6 @@
       <c r="AL63" t="n">
         <v>0</v>
       </c>
-      <c r="AM63" t="inlineStr"/>
       <c r="AN63" t="n">
         <v>4</v>
       </c>
@@ -10253,7 +9713,6 @@
       <c r="AL64" t="n">
         <v>0</v>
       </c>
-      <c r="AM64" t="inlineStr"/>
       <c r="AN64" t="n">
         <v>4</v>
       </c>
@@ -10436,7 +9895,6 @@
       <c r="AL65" t="n">
         <v>0</v>
       </c>
-      <c r="AM65" t="inlineStr"/>
       <c r="AN65" t="n">
         <v>4</v>
       </c>
@@ -10619,7 +10077,6 @@
       <c r="AL66" t="n">
         <v>0</v>
       </c>
-      <c r="AM66" t="inlineStr"/>
       <c r="AN66" t="n">
         <v>4</v>
       </c>
@@ -10802,7 +10259,6 @@
       <c r="AL67" t="n">
         <v>0</v>
       </c>
-      <c r="AM67" t="inlineStr"/>
       <c r="AN67" t="n">
         <v>4</v>
       </c>
@@ -10985,7 +10441,6 @@
       <c r="AL68" t="n">
         <v>0</v>
       </c>
-      <c r="AM68" t="inlineStr"/>
       <c r="AN68" t="n">
         <v>4</v>
       </c>
@@ -11168,7 +10623,6 @@
       <c r="AL69" t="n">
         <v>0</v>
       </c>
-      <c r="AM69" t="inlineStr"/>
       <c r="AN69" t="n">
         <v>4</v>
       </c>
@@ -11351,7 +10805,6 @@
       <c r="AL70" t="n">
         <v>0</v>
       </c>
-      <c r="AM70" t="inlineStr"/>
       <c r="AN70" t="n">
         <v>4</v>
       </c>
@@ -11445,10 +10898,10 @@
       <c r="O71" t="n">
         <v>1</v>
       </c>
-      <c r="P71" s="2" t="n">
+      <c r="P71" s="3" t="n">
         <v>44806</v>
       </c>
-      <c r="Q71" s="2" t="n">
+      <c r="Q71" s="3" t="n">
         <v>44786</v>
       </c>
       <c r="R71" t="inlineStr">
@@ -11456,20 +10909,19 @@
           <t>INF-2022 HFP-010</t>
         </is>
       </c>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" s="2" t="n">
+      <c r="T71" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U71" s="2" t="n">
+      <c r="U71" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V71" s="2" t="n">
+      <c r="V71" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W71" s="2" t="n">
+      <c r="W71" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X71" s="2" t="n">
+      <c r="X71" s="3" t="n">
         <v>44746</v>
       </c>
       <c r="Y71" t="inlineStr">
@@ -11477,7 +10929,6 @@
           <t>MHIGS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="n">
         <v>0</v>
       </c>
@@ -11514,8 +10965,6 @@
       <c r="AL71" t="n">
         <v>0</v>
       </c>
-      <c r="AM71" t="inlineStr"/>
-      <c r="AN71" t="inlineStr"/>
       <c r="AO71" t="n">
         <v>0</v>
       </c>
@@ -11606,29 +11055,27 @@
       <c r="O72" t="n">
         <v>1</v>
       </c>
-      <c r="P72" s="2" t="n">
+      <c r="P72" s="3" t="n">
         <v>44823</v>
       </c>
-      <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr">
         <is>
           <t>INF-2022 HFP-007</t>
         </is>
       </c>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" s="2" t="n">
+      <c r="T72" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U72" s="2" t="n">
+      <c r="U72" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V72" s="2" t="n">
+      <c r="V72" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W72" s="2" t="n">
+      <c r="W72" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X72" s="2" t="n">
+      <c r="X72" s="3" t="n">
         <v>44748</v>
       </c>
       <c r="Y72" t="inlineStr">
@@ -11636,7 +11083,6 @@
           <t>LIVINGSTONE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="n">
         <v>0</v>
       </c>
@@ -11673,8 +11119,6 @@
       <c r="AL72" t="n">
         <v>0</v>
       </c>
-      <c r="AM72" t="inlineStr"/>
-      <c r="AN72" t="inlineStr"/>
       <c r="AO72" t="n">
         <v>0</v>
       </c>
@@ -11735,7 +11179,6 @@
           <t>Lone District</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
         <v>1</v>
       </c>
@@ -11763,29 +11206,27 @@
       <c r="O73" t="n">
         <v>1</v>
       </c>
-      <c r="P73" s="2" t="n">
+      <c r="P73" s="3" t="n">
         <v>44823</v>
       </c>
-      <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr">
         <is>
           <t>INF-2022 HFP-007</t>
         </is>
       </c>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" s="2" t="n">
+      <c r="T73" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U73" s="2" t="n">
+      <c r="U73" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V73" s="2" t="n">
+      <c r="V73" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W73" s="2" t="n">
+      <c r="W73" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X73" s="2" t="n">
+      <c r="X73" s="3" t="n">
         <v>44748</v>
       </c>
       <c r="Y73" t="inlineStr">
@@ -11793,7 +11234,6 @@
           <t>LIVINGSTONE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z73" t="inlineStr"/>
       <c r="AA73" t="n">
         <v>0</v>
       </c>
@@ -11830,8 +11270,6 @@
       <c r="AL73" t="n">
         <v>0</v>
       </c>
-      <c r="AM73" t="inlineStr"/>
-      <c r="AN73" t="inlineStr"/>
       <c r="AO73" t="n">
         <v>0</v>
       </c>
@@ -11922,10 +11360,10 @@
       <c r="O74" t="n">
         <v>1</v>
       </c>
-      <c r="P74" s="2" t="n">
+      <c r="P74" s="3" t="n">
         <v>44808</v>
       </c>
-      <c r="Q74" s="2" t="n">
+      <c r="Q74" s="3" t="n">
         <v>44792</v>
       </c>
       <c r="R74" t="inlineStr">
@@ -11933,20 +11371,19 @@
           <t>INF-2022 HFP-009</t>
         </is>
       </c>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" s="2" t="n">
+      <c r="T74" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U74" s="2" t="n">
+      <c r="U74" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V74" s="2" t="n">
+      <c r="V74" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W74" s="2" t="n">
+      <c r="W74" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X74" s="2" t="n">
+      <c r="X74" s="3" t="n">
         <v>44748</v>
       </c>
       <c r="Y74" t="inlineStr">
@@ -11954,7 +11391,6 @@
           <t>MR-G CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="n">
         <v>0</v>
       </c>
@@ -11991,8 +11427,6 @@
       <c r="AL74" t="n">
         <v>0</v>
       </c>
-      <c r="AM74" t="inlineStr"/>
-      <c r="AN74" t="inlineStr"/>
       <c r="AO74" t="n">
         <v>0</v>
       </c>
@@ -12083,29 +11517,27 @@
       <c r="O75" t="n">
         <v>1</v>
       </c>
-      <c r="P75" s="2" t="n">
+      <c r="P75" s="3" t="n">
         <v>44823</v>
       </c>
-      <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr">
         <is>
           <t>INF-2022 HFP-007</t>
         </is>
       </c>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" s="2" t="n">
+      <c r="T75" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U75" s="2" t="n">
+      <c r="U75" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V75" s="2" t="n">
+      <c r="V75" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W75" s="2" t="n">
+      <c r="W75" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X75" s="2" t="n">
+      <c r="X75" s="3" t="n">
         <v>44748</v>
       </c>
       <c r="Y75" t="inlineStr">
@@ -12113,7 +11545,6 @@
           <t>LIVINGSTONE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="n">
         <v>0</v>
       </c>
@@ -12150,8 +11581,6 @@
       <c r="AL75" t="n">
         <v>0</v>
       </c>
-      <c r="AM75" t="inlineStr"/>
-      <c r="AN75" t="inlineStr"/>
       <c r="AO75" t="n">
         <v>0</v>
       </c>
@@ -12242,29 +11671,27 @@
       <c r="O76" t="n">
         <v>1</v>
       </c>
-      <c r="P76" s="2" t="n">
+      <c r="P76" s="3" t="n">
         <v>44821</v>
       </c>
-      <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr">
         <is>
           <t>INF-2022 HFP-009</t>
         </is>
       </c>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" s="2" t="n">
+      <c r="T76" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U76" s="2" t="n">
+      <c r="U76" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V76" s="2" t="n">
+      <c r="V76" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W76" s="2" t="n">
+      <c r="W76" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X76" s="2" t="n">
+      <c r="X76" s="3" t="n">
         <v>44746</v>
       </c>
       <c r="Y76" t="inlineStr">
@@ -12272,7 +11699,6 @@
           <t>POKLE'S CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z76" t="inlineStr"/>
       <c r="AA76" t="n">
         <v>0</v>
       </c>
@@ -12309,8 +11735,6 @@
       <c r="AL76" t="n">
         <v>0</v>
       </c>
-      <c r="AM76" t="inlineStr"/>
-      <c r="AN76" t="inlineStr"/>
       <c r="AO76" t="n">
         <v>0</v>
       </c>
@@ -12401,10 +11825,10 @@
       <c r="O77" t="n">
         <v>1</v>
       </c>
-      <c r="P77" s="2" t="n">
+      <c r="P77" s="3" t="n">
         <v>44806</v>
       </c>
-      <c r="Q77" s="2" t="n">
+      <c r="Q77" s="3" t="n">
         <v>44786</v>
       </c>
       <c r="R77" t="inlineStr">
@@ -12412,20 +11836,19 @@
           <t>INF-2022 HFP-010</t>
         </is>
       </c>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" s="2" t="n">
+      <c r="T77" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U77" s="2" t="n">
+      <c r="U77" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V77" s="2" t="n">
+      <c r="V77" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W77" s="2" t="n">
+      <c r="W77" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X77" s="2" t="n">
+      <c r="X77" s="3" t="n">
         <v>44746</v>
       </c>
       <c r="Y77" t="inlineStr">
@@ -12433,7 +11856,6 @@
           <t>MHIGS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="n">
         <v>0</v>
       </c>
@@ -12470,8 +11892,6 @@
       <c r="AL77" t="n">
         <v>0</v>
       </c>
-      <c r="AM77" t="inlineStr"/>
-      <c r="AN77" t="inlineStr"/>
       <c r="AO77" t="n">
         <v>0</v>
       </c>
@@ -12562,29 +11982,27 @@
       <c r="O78" t="n">
         <v>1</v>
       </c>
-      <c r="P78" s="2" t="n">
+      <c r="P78" s="3" t="n">
         <v>44821</v>
       </c>
-      <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr">
         <is>
           <t>INF-2022 HFP-009</t>
         </is>
       </c>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" s="2" t="n">
+      <c r="T78" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U78" s="2" t="n">
+      <c r="U78" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V78" s="2" t="n">
+      <c r="V78" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W78" s="2" t="n">
+      <c r="W78" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X78" s="2" t="n">
+      <c r="X78" s="3" t="n">
         <v>44746</v>
       </c>
       <c r="Y78" t="inlineStr">
@@ -12592,7 +12010,6 @@
           <t>POKLE'S CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="n">
         <v>0</v>
       </c>
@@ -12629,8 +12046,6 @@
       <c r="AL78" t="n">
         <v>0</v>
       </c>
-      <c r="AM78" t="inlineStr"/>
-      <c r="AN78" t="inlineStr"/>
       <c r="AO78" t="n">
         <v>0</v>
       </c>
@@ -12721,29 +12136,27 @@
       <c r="O79" t="n">
         <v>1</v>
       </c>
-      <c r="P79" s="2" t="n">
+      <c r="P79" s="3" t="n">
         <v>44823</v>
       </c>
-      <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr">
         <is>
           <t>INF-2022 HFP-007</t>
         </is>
       </c>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" s="2" t="n">
+      <c r="T79" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U79" s="2" t="n">
+      <c r="U79" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V79" s="2" t="n">
+      <c r="V79" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W79" s="2" t="n">
+      <c r="W79" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X79" s="2" t="n">
+      <c r="X79" s="3" t="n">
         <v>44748</v>
       </c>
       <c r="Y79" t="inlineStr">
@@ -12751,7 +12164,6 @@
           <t>LIVINGSTONE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="n">
         <v>0</v>
       </c>
@@ -12788,8 +12200,6 @@
       <c r="AL79" t="n">
         <v>0</v>
       </c>
-      <c r="AM79" t="inlineStr"/>
-      <c r="AN79" t="inlineStr"/>
       <c r="AO79" t="n">
         <v>0</v>
       </c>
@@ -12850,7 +12260,6 @@
           <t>Lone District</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr"/>
       <c r="I80" t="n">
         <v>1</v>
       </c>
@@ -12878,29 +12287,27 @@
       <c r="O80" t="n">
         <v>1</v>
       </c>
-      <c r="P80" s="2" t="n">
+      <c r="P80" s="3" t="n">
         <v>44823</v>
       </c>
-      <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr">
         <is>
           <t>INF-2022 HFP-007</t>
         </is>
       </c>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" s="2" t="n">
+      <c r="T80" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U80" s="2" t="n">
+      <c r="U80" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V80" s="2" t="n">
+      <c r="V80" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W80" s="2" t="n">
+      <c r="W80" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X80" s="2" t="n">
+      <c r="X80" s="3" t="n">
         <v>44748</v>
       </c>
       <c r="Y80" t="inlineStr">
@@ -12908,7 +12315,6 @@
           <t>LIVINGSTONE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="n">
         <v>0</v>
       </c>
@@ -12945,8 +12351,6 @@
       <c r="AL80" t="n">
         <v>0</v>
       </c>
-      <c r="AM80" t="inlineStr"/>
-      <c r="AN80" t="inlineStr"/>
       <c r="AO80" t="n">
         <v>0</v>
       </c>
@@ -13037,29 +12441,27 @@
       <c r="O81" t="n">
         <v>1</v>
       </c>
-      <c r="P81" s="2" t="n">
+      <c r="P81" s="3" t="n">
         <v>44824</v>
       </c>
-      <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr">
         <is>
           <t>INF-2022 HFP-008</t>
         </is>
       </c>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" s="2" t="n">
+      <c r="T81" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U81" s="2" t="n">
+      <c r="U81" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V81" s="2" t="n">
+      <c r="V81" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W81" s="2" t="n">
+      <c r="W81" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X81" s="2" t="n">
+      <c r="X81" s="3" t="n">
         <v>44749</v>
       </c>
       <c r="Y81" t="inlineStr">
@@ -13067,7 +12469,6 @@
           <t>CNL CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z81" t="inlineStr"/>
       <c r="AA81" t="n">
         <v>0</v>
       </c>
@@ -13104,8 +12505,6 @@
       <c r="AL81" t="n">
         <v>0</v>
       </c>
-      <c r="AM81" t="inlineStr"/>
-      <c r="AN81" t="inlineStr"/>
       <c r="AO81" t="n">
         <v>0</v>
       </c>
@@ -13196,29 +12595,27 @@
       <c r="O82" t="n">
         <v>1</v>
       </c>
-      <c r="P82" s="2" t="n">
+      <c r="P82" s="3" t="n">
         <v>44824</v>
       </c>
-      <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr">
         <is>
           <t>INF-2022 HFP-008</t>
         </is>
       </c>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" s="2" t="n">
+      <c r="T82" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U82" s="2" t="n">
+      <c r="U82" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V82" s="2" t="n">
+      <c r="V82" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W82" s="2" t="n">
+      <c r="W82" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X82" s="2" t="n">
+      <c r="X82" s="3" t="n">
         <v>44749</v>
       </c>
       <c r="Y82" t="inlineStr">
@@ -13226,7 +12623,6 @@
           <t>CNL CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="n">
         <v>0</v>
       </c>
@@ -13263,8 +12659,6 @@
       <c r="AL82" t="n">
         <v>0</v>
       </c>
-      <c r="AM82" t="inlineStr"/>
-      <c r="AN82" t="inlineStr"/>
       <c r="AO82" t="n">
         <v>0</v>
       </c>
@@ -13355,10 +12749,10 @@
       <c r="O83" t="n">
         <v>1</v>
       </c>
-      <c r="P83" s="2" t="n">
+      <c r="P83" s="3" t="n">
         <v>44808</v>
       </c>
-      <c r="Q83" s="2" t="n">
+      <c r="Q83" s="3" t="n">
         <v>44781</v>
       </c>
       <c r="R83" t="inlineStr">
@@ -13366,20 +12760,19 @@
           <t>INF-2022 HFP-009</t>
         </is>
       </c>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" s="2" t="n">
+      <c r="T83" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U83" s="2" t="n">
+      <c r="U83" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V83" s="2" t="n">
+      <c r="V83" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W83" s="2" t="n">
+      <c r="W83" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X83" s="2" t="n">
+      <c r="X83" s="3" t="n">
         <v>44748</v>
       </c>
       <c r="Y83" t="inlineStr">
@@ -13387,7 +12780,6 @@
           <t>MR-G CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z83" t="inlineStr"/>
       <c r="AA83" t="n">
         <v>0</v>
       </c>
@@ -13424,8 +12816,6 @@
       <c r="AL83" t="n">
         <v>0</v>
       </c>
-      <c r="AM83" t="inlineStr"/>
-      <c r="AN83" t="inlineStr"/>
       <c r="AO83" t="n">
         <v>0</v>
       </c>
@@ -13516,10 +12906,10 @@
       <c r="O84" t="n">
         <v>1</v>
       </c>
-      <c r="P84" s="2" t="n">
+      <c r="P84" s="3" t="n">
         <v>44808</v>
       </c>
-      <c r="Q84" s="2" t="n">
+      <c r="Q84" s="3" t="n">
         <v>44806</v>
       </c>
       <c r="R84" t="inlineStr">
@@ -13527,20 +12917,19 @@
           <t>INF-2022 HFP-009</t>
         </is>
       </c>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" s="2" t="n">
+      <c r="T84" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U84" s="2" t="n">
+      <c r="U84" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V84" s="2" t="n">
+      <c r="V84" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W84" s="2" t="n">
+      <c r="W84" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X84" s="2" t="n">
+      <c r="X84" s="3" t="n">
         <v>44748</v>
       </c>
       <c r="Y84" t="inlineStr">
@@ -13548,7 +12937,6 @@
           <t>MR-G CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z84" t="inlineStr"/>
       <c r="AA84" t="n">
         <v>0</v>
       </c>
@@ -13585,8 +12973,6 @@
       <c r="AL84" t="n">
         <v>0</v>
       </c>
-      <c r="AM84" t="inlineStr"/>
-      <c r="AN84" t="inlineStr"/>
       <c r="AO84" t="n">
         <v>0</v>
       </c>
@@ -13677,29 +13063,27 @@
       <c r="O85" t="n">
         <v>1</v>
       </c>
-      <c r="P85" s="2" t="n">
+      <c r="P85" s="3" t="n">
         <v>44824</v>
       </c>
-      <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr">
         <is>
           <t>INF-2022 HFP-008</t>
         </is>
       </c>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" s="2" t="n">
+      <c r="T85" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U85" s="2" t="n">
+      <c r="U85" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V85" s="2" t="n">
+      <c r="V85" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W85" s="2" t="n">
+      <c r="W85" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X85" s="2" t="n">
+      <c r="X85" s="3" t="n">
         <v>44749</v>
       </c>
       <c r="Y85" t="inlineStr">
@@ -13707,7 +13091,6 @@
           <t>CNL CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="n">
         <v>0</v>
       </c>
@@ -13744,8 +13127,6 @@
       <c r="AL85" t="n">
         <v>0</v>
       </c>
-      <c r="AM85" t="inlineStr"/>
-      <c r="AN85" t="inlineStr"/>
       <c r="AO85" t="n">
         <v>0</v>
       </c>
@@ -13836,10 +13217,10 @@
       <c r="O86" t="n">
         <v>1</v>
       </c>
-      <c r="P86" s="2" t="n">
+      <c r="P86" s="3" t="n">
         <v>44823</v>
       </c>
-      <c r="Q86" s="2" t="n">
+      <c r="Q86" s="3" t="n">
         <v>44819</v>
       </c>
       <c r="R86" t="inlineStr">
@@ -13847,20 +13228,19 @@
           <t>INF-2022 HFP-007</t>
         </is>
       </c>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" s="2" t="n">
+      <c r="T86" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U86" s="2" t="n">
+      <c r="U86" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V86" s="2" t="n">
+      <c r="V86" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W86" s="2" t="n">
+      <c r="W86" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X86" s="2" t="n">
+      <c r="X86" s="3" t="n">
         <v>44748</v>
       </c>
       <c r="Y86" t="inlineStr">
@@ -13868,7 +13248,6 @@
           <t>LIVINGSTONE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="n">
         <v>0</v>
       </c>
@@ -13905,8 +13284,6 @@
       <c r="AL86" t="n">
         <v>0</v>
       </c>
-      <c r="AM86" t="inlineStr"/>
-      <c r="AN86" t="inlineStr"/>
       <c r="AO86" t="n">
         <v>0</v>
       </c>
@@ -13997,10 +13374,10 @@
       <c r="O87" t="n">
         <v>1</v>
       </c>
-      <c r="P87" s="2" t="n">
+      <c r="P87" s="3" t="n">
         <v>44806</v>
       </c>
-      <c r="Q87" s="2" t="n">
+      <c r="Q87" s="3" t="n">
         <v>44786</v>
       </c>
       <c r="R87" t="inlineStr">
@@ -14008,20 +13385,19 @@
           <t>INF-2022 HFP-010</t>
         </is>
       </c>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" s="2" t="n">
+      <c r="T87" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U87" s="2" t="n">
+      <c r="U87" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V87" s="2" t="n">
+      <c r="V87" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W87" s="2" t="n">
+      <c r="W87" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X87" s="2" t="n">
+      <c r="X87" s="3" t="n">
         <v>44746</v>
       </c>
       <c r="Y87" t="inlineStr">
@@ -14029,7 +13405,6 @@
           <t>MHIGS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="n">
         <v>0</v>
       </c>
@@ -14066,8 +13441,6 @@
       <c r="AL87" t="n">
         <v>0</v>
       </c>
-      <c r="AM87" t="inlineStr"/>
-      <c r="AN87" t="inlineStr"/>
       <c r="AO87" t="n">
         <v>0</v>
       </c>
@@ -14158,10 +13531,10 @@
       <c r="O88" t="n">
         <v>1</v>
       </c>
-      <c r="P88" s="2" t="n">
+      <c r="P88" s="3" t="n">
         <v>44806</v>
       </c>
-      <c r="Q88" s="2" t="n">
+      <c r="Q88" s="3" t="n">
         <v>44786</v>
       </c>
       <c r="R88" t="inlineStr">
@@ -14169,20 +13542,19 @@
           <t>INF-2022 HFP-010</t>
         </is>
       </c>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" s="2" t="n">
+      <c r="T88" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U88" s="2" t="n">
+      <c r="U88" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V88" s="2" t="n">
+      <c r="V88" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W88" s="2" t="n">
+      <c r="W88" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X88" s="2" t="n">
+      <c r="X88" s="3" t="n">
         <v>44746</v>
       </c>
       <c r="Y88" t="inlineStr">
@@ -14190,7 +13562,6 @@
           <t>MHIGS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="n">
         <v>0</v>
       </c>
@@ -14227,8 +13598,6 @@
       <c r="AL88" t="n">
         <v>0</v>
       </c>
-      <c r="AM88" t="inlineStr"/>
-      <c r="AN88" t="inlineStr"/>
       <c r="AO88" t="n">
         <v>0</v>
       </c>
@@ -14319,10 +13688,10 @@
       <c r="O89" t="n">
         <v>1</v>
       </c>
-      <c r="P89" s="2" t="n">
+      <c r="P89" s="3" t="n">
         <v>44806</v>
       </c>
-      <c r="Q89" s="2" t="n">
+      <c r="Q89" s="3" t="n">
         <v>44786</v>
       </c>
       <c r="R89" t="inlineStr">
@@ -14330,20 +13699,19 @@
           <t>INF-2022 HFP-010</t>
         </is>
       </c>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" s="2" t="n">
+      <c r="T89" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U89" s="2" t="n">
+      <c r="U89" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V89" s="2" t="n">
+      <c r="V89" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W89" s="2" t="n">
+      <c r="W89" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X89" s="2" t="n">
+      <c r="X89" s="3" t="n">
         <v>44746</v>
       </c>
       <c r="Y89" t="inlineStr">
@@ -14351,7 +13719,6 @@
           <t>MHIGS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="n">
         <v>0</v>
       </c>
@@ -14388,8 +13755,6 @@
       <c r="AL89" t="n">
         <v>0</v>
       </c>
-      <c r="AM89" t="inlineStr"/>
-      <c r="AN89" t="inlineStr"/>
       <c r="AO89" t="n">
         <v>0</v>
       </c>
@@ -14529,7 +13894,6 @@
           <t>CHUMA-ASI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z90" t="inlineStr"/>
       <c r="AA90" t="n">
         <v>0</v>
       </c>
@@ -14566,8 +13930,6 @@
       <c r="AL90" t="n">
         <v>0</v>
       </c>
-      <c r="AM90" t="inlineStr"/>
-      <c r="AN90" t="inlineStr"/>
       <c r="AO90" t="n">
         <v>0</v>
       </c>
@@ -14707,7 +14069,6 @@
           <t>CHUMA-ASI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z91" t="inlineStr"/>
       <c r="AA91" t="n">
         <v>0</v>
       </c>
@@ -14744,8 +14105,6 @@
       <c r="AL91" t="n">
         <v>0</v>
       </c>
-      <c r="AM91" t="inlineStr"/>
-      <c r="AN91" t="inlineStr"/>
       <c r="AO91" t="n">
         <v>0</v>
       </c>
@@ -14884,7 +14243,6 @@
           <t>CHUMA-ASI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z92" t="inlineStr"/>
       <c r="AA92" t="n">
         <v>0</v>
       </c>
@@ -14921,8 +14279,6 @@
       <c r="AL92" t="n">
         <v>0</v>
       </c>
-      <c r="AM92" t="inlineStr"/>
-      <c r="AN92" t="inlineStr"/>
       <c r="AO92" t="n">
         <v>0</v>
       </c>
@@ -14943,7 +14299,6 @@
           <t>Construction of Water System</t>
         </is>
       </c>
-      <c r="AU92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -14996,7 +14351,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -15005,17 +14359,6 @@
       <c r="O93" t="n">
         <v>1</v>
       </c>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr"/>
-      <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
-      <c r="Z93" t="inlineStr"/>
       <c r="AA93" t="n">
         <v>0</v>
       </c>
@@ -15052,7 +14395,6 @@
       <c r="AL93" t="n">
         <v>0</v>
       </c>
-      <c r="AM93" t="inlineStr"/>
       <c r="AN93" t="n">
         <v>4</v>
       </c>
@@ -15194,7 +14536,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z94" t="inlineStr"/>
       <c r="AA94" t="n">
         <v>0</v>
       </c>
@@ -15231,7 +14572,6 @@
       <c r="AL94" t="n">
         <v>0</v>
       </c>
-      <c r="AM94" t="inlineStr"/>
       <c r="AN94" t="n">
         <v>2</v>
       </c>
@@ -15293,7 +14633,6 @@
       <c r="G95" t="n">
         <v>2</v>
       </c>
-      <c r="H95" t="inlineStr"/>
       <c r="I95" t="n">
         <v>3</v>
       </c>
@@ -15371,7 +14710,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z95" t="inlineStr"/>
       <c r="AA95" t="n">
         <v>0</v>
       </c>
@@ -15408,7 +14746,6 @@
       <c r="AL95" t="n">
         <v>0</v>
       </c>
-      <c r="AM95" t="inlineStr"/>
       <c r="AN95" t="n">
         <v>2</v>
       </c>
@@ -15550,7 +14887,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z96" t="inlineStr"/>
       <c r="AA96" t="n">
         <v>0</v>
       </c>
@@ -15587,8 +14923,6 @@
       <c r="AL96" t="n">
         <v>0</v>
       </c>
-      <c r="AM96" t="inlineStr"/>
-      <c r="AN96" t="inlineStr"/>
       <c r="AO96" t="n">
         <v>0</v>
       </c>
@@ -15609,7 +14943,6 @@
           <t>Construction of Group Hand Washing</t>
         </is>
       </c>
-      <c r="AU96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -15723,7 +15056,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z97" t="inlineStr"/>
       <c r="AA97" t="n">
         <v>0</v>
       </c>
@@ -15760,8 +15092,6 @@
       <c r="AL97" t="n">
         <v>0</v>
       </c>
-      <c r="AM97" t="inlineStr"/>
-      <c r="AN97" t="inlineStr"/>
       <c r="AO97" t="n">
         <v>0</v>
       </c>
@@ -15782,7 +15112,6 @@
           <t>Construction of Group Hand Washing</t>
         </is>
       </c>
-      <c r="AU97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -15816,7 +15145,6 @@
       <c r="G98" t="n">
         <v>2</v>
       </c>
-      <c r="H98" t="inlineStr"/>
       <c r="I98" t="n">
         <v>3</v>
       </c>
@@ -15894,7 +15222,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z98" t="inlineStr"/>
       <c r="AA98" t="n">
         <v>0</v>
       </c>
@@ -15931,8 +15258,6 @@
       <c r="AL98" t="n">
         <v>0</v>
       </c>
-      <c r="AM98" t="inlineStr"/>
-      <c r="AN98" t="inlineStr"/>
       <c r="AO98" t="n">
         <v>0</v>
       </c>
@@ -16071,7 +15396,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z99" t="inlineStr"/>
       <c r="AA99" t="n">
         <v>0</v>
       </c>
@@ -16108,8 +15432,6 @@
       <c r="AL99" t="n">
         <v>0</v>
       </c>
-      <c r="AM99" t="inlineStr"/>
-      <c r="AN99" t="inlineStr"/>
       <c r="AO99" t="n">
         <v>0</v>
       </c>
@@ -16248,7 +15570,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z100" t="inlineStr"/>
       <c r="AA100" t="n">
         <v>0</v>
       </c>
@@ -16285,8 +15606,6 @@
       <c r="AL100" t="n">
         <v>0</v>
       </c>
-      <c r="AM100" t="inlineStr"/>
-      <c r="AN100" t="inlineStr"/>
       <c r="AO100" t="n">
         <v>0</v>
       </c>
@@ -16345,7 +15664,6 @@
       <c r="G101" t="n">
         <v>2</v>
       </c>
-      <c r="H101" t="inlineStr"/>
       <c r="I101" t="n">
         <v>3</v>
       </c>
@@ -16423,7 +15741,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z101" t="inlineStr"/>
       <c r="AA101" t="n">
         <v>0</v>
       </c>
@@ -16460,8 +15777,6 @@
       <c r="AL101" t="n">
         <v>0</v>
       </c>
-      <c r="AM101" t="inlineStr"/>
-      <c r="AN101" t="inlineStr"/>
       <c r="AO101" t="n">
         <v>0</v>
       </c>
@@ -16600,7 +15915,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z102" t="inlineStr"/>
       <c r="AA102" t="n">
         <v>0</v>
       </c>
@@ -16637,8 +15951,6 @@
       <c r="AL102" t="n">
         <v>0</v>
       </c>
-      <c r="AM102" t="inlineStr"/>
-      <c r="AN102" t="inlineStr"/>
       <c r="AO102" t="n">
         <v>0</v>
       </c>
@@ -16777,7 +16089,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z103" t="inlineStr"/>
       <c r="AA103" t="n">
         <v>0</v>
       </c>
@@ -16814,8 +16125,6 @@
       <c r="AL103" t="n">
         <v>0</v>
       </c>
-      <c r="AM103" t="inlineStr"/>
-      <c r="AN103" t="inlineStr"/>
       <c r="AO103" t="n">
         <v>0</v>
       </c>
@@ -16954,7 +16263,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z104" t="inlineStr"/>
       <c r="AA104" t="n">
         <v>0</v>
       </c>
@@ -16991,8 +16299,6 @@
       <c r="AL104" t="n">
         <v>0</v>
       </c>
-      <c r="AM104" t="inlineStr"/>
-      <c r="AN104" t="inlineStr"/>
       <c r="AO104" t="n">
         <v>0</v>
       </c>
@@ -17051,7 +16357,6 @@
       <c r="G105" t="n">
         <v>2</v>
       </c>
-      <c r="H105" t="inlineStr"/>
       <c r="I105" t="n">
         <v>3</v>
       </c>
@@ -17129,7 +16434,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z105" t="inlineStr"/>
       <c r="AA105" t="n">
         <v>0</v>
       </c>
@@ -17166,8 +16470,6 @@
       <c r="AL105" t="n">
         <v>0</v>
       </c>
-      <c r="AM105" t="inlineStr"/>
-      <c r="AN105" t="inlineStr"/>
       <c r="AO105" t="n">
         <v>0</v>
       </c>
@@ -17306,7 +16608,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z106" t="inlineStr"/>
       <c r="AA106" t="n">
         <v>0</v>
       </c>
@@ -17343,8 +16644,6 @@
       <c r="AL106" t="n">
         <v>0</v>
       </c>
-      <c r="AM106" t="inlineStr"/>
-      <c r="AN106" t="inlineStr"/>
       <c r="AO106" t="n">
         <v>0</v>
       </c>
@@ -17403,7 +16702,6 @@
       <c r="G107" t="n">
         <v>2</v>
       </c>
-      <c r="H107" t="inlineStr"/>
       <c r="I107" t="n">
         <v>3</v>
       </c>
@@ -17481,7 +16779,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z107" t="inlineStr"/>
       <c r="AA107" t="n">
         <v>0</v>
       </c>
@@ -17518,8 +16815,6 @@
       <c r="AL107" t="n">
         <v>0</v>
       </c>
-      <c r="AM107" t="inlineStr"/>
-      <c r="AN107" t="inlineStr"/>
       <c r="AO107" t="n">
         <v>0</v>
       </c>
@@ -17658,7 +16953,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z108" t="inlineStr"/>
       <c r="AA108" t="n">
         <v>0</v>
       </c>
@@ -17695,8 +16989,6 @@
       <c r="AL108" t="n">
         <v>0</v>
       </c>
-      <c r="AM108" t="inlineStr"/>
-      <c r="AN108" t="inlineStr"/>
       <c r="AO108" t="n">
         <v>0</v>
       </c>
@@ -17755,7 +17047,6 @@
       <c r="G109" t="n">
         <v>2</v>
       </c>
-      <c r="H109" t="inlineStr"/>
       <c r="I109" t="n">
         <v>3</v>
       </c>
@@ -17833,7 +17124,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z109" t="inlineStr"/>
       <c r="AA109" t="n">
         <v>0</v>
       </c>
@@ -17870,8 +17160,6 @@
       <c r="AL109" t="n">
         <v>0</v>
       </c>
-      <c r="AM109" t="inlineStr"/>
-      <c r="AN109" t="inlineStr"/>
       <c r="AO109" t="n">
         <v>0</v>
       </c>
@@ -18010,7 +17298,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z110" t="inlineStr"/>
       <c r="AA110" t="n">
         <v>0</v>
       </c>
@@ -18047,8 +17334,6 @@
       <c r="AL110" t="n">
         <v>0</v>
       </c>
-      <c r="AM110" t="inlineStr"/>
-      <c r="AN110" t="inlineStr"/>
       <c r="AO110" t="n">
         <v>0</v>
       </c>
@@ -18107,7 +17392,6 @@
       <c r="G111" t="n">
         <v>2</v>
       </c>
-      <c r="H111" t="inlineStr"/>
       <c r="I111" t="n">
         <v>3</v>
       </c>
@@ -18185,7 +17469,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z111" t="inlineStr"/>
       <c r="AA111" t="n">
         <v>0</v>
       </c>
@@ -18222,8 +17505,6 @@
       <c r="AL111" t="n">
         <v>0</v>
       </c>
-      <c r="AM111" t="inlineStr"/>
-      <c r="AN111" t="inlineStr"/>
       <c r="AO111" t="n">
         <v>0</v>
       </c>
@@ -18362,7 +17643,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z112" t="inlineStr"/>
       <c r="AA112" t="n">
         <v>0</v>
       </c>
@@ -18399,8 +17679,6 @@
       <c r="AL112" t="n">
         <v>0</v>
       </c>
-      <c r="AM112" t="inlineStr"/>
-      <c r="AN112" t="inlineStr"/>
       <c r="AO112" t="n">
         <v>0</v>
       </c>
@@ -18539,7 +17817,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z113" t="inlineStr"/>
       <c r="AA113" t="n">
         <v>0</v>
       </c>
@@ -18576,8 +17853,6 @@
       <c r="AL113" t="n">
         <v>0</v>
       </c>
-      <c r="AM113" t="inlineStr"/>
-      <c r="AN113" t="inlineStr"/>
       <c r="AO113" t="n">
         <v>0</v>
       </c>
@@ -18636,7 +17911,6 @@
       <c r="G114" t="n">
         <v>2</v>
       </c>
-      <c r="H114" t="inlineStr"/>
       <c r="I114" t="n">
         <v>3</v>
       </c>
@@ -18714,7 +17988,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z114" t="inlineStr"/>
       <c r="AA114" t="n">
         <v>0</v>
       </c>
@@ -18751,8 +18024,6 @@
       <c r="AL114" t="n">
         <v>0</v>
       </c>
-      <c r="AM114" t="inlineStr"/>
-      <c r="AN114" t="inlineStr"/>
       <c r="AO114" t="n">
         <v>0</v>
       </c>
@@ -18891,7 +18162,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z115" t="inlineStr"/>
       <c r="AA115" t="n">
         <v>0</v>
       </c>
@@ -18928,8 +18198,6 @@
       <c r="AL115" t="n">
         <v>0</v>
       </c>
-      <c r="AM115" t="inlineStr"/>
-      <c r="AN115" t="inlineStr"/>
       <c r="AO115" t="n">
         <v>0</v>
       </c>
@@ -19068,7 +18336,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z116" t="inlineStr"/>
       <c r="AA116" t="n">
         <v>0</v>
       </c>
@@ -19105,8 +18372,6 @@
       <c r="AL116" t="n">
         <v>0</v>
       </c>
-      <c r="AM116" t="inlineStr"/>
-      <c r="AN116" t="inlineStr"/>
       <c r="AO116" t="n">
         <v>0</v>
       </c>
@@ -19245,7 +18510,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z117" t="inlineStr"/>
       <c r="AA117" t="n">
         <v>0</v>
       </c>
@@ -19282,8 +18546,6 @@
       <c r="AL117" t="n">
         <v>0</v>
       </c>
-      <c r="AM117" t="inlineStr"/>
-      <c r="AN117" t="inlineStr"/>
       <c r="AO117" t="n">
         <v>0</v>
       </c>
@@ -19304,7 +18566,6 @@
           <t>Construction of Group Hand Washing</t>
         </is>
       </c>
-      <c r="AU117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -19418,7 +18679,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z118" t="inlineStr"/>
       <c r="AA118" t="n">
         <v>0</v>
       </c>
@@ -19455,8 +18715,6 @@
       <c r="AL118" t="n">
         <v>0</v>
       </c>
-      <c r="AM118" t="inlineStr"/>
-      <c r="AN118" t="inlineStr"/>
       <c r="AO118" t="n">
         <v>0</v>
       </c>
@@ -19595,7 +18853,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z119" t="inlineStr"/>
       <c r="AA119" t="n">
         <v>0</v>
       </c>
@@ -19632,8 +18889,6 @@
       <c r="AL119" t="n">
         <v>0</v>
       </c>
-      <c r="AM119" t="inlineStr"/>
-      <c r="AN119" t="inlineStr"/>
       <c r="AO119" t="n">
         <v>0</v>
       </c>
@@ -19772,7 +19027,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z120" t="inlineStr"/>
       <c r="AA120" t="n">
         <v>0</v>
       </c>
@@ -19809,8 +19063,6 @@
       <c r="AL120" t="n">
         <v>0</v>
       </c>
-      <c r="AM120" t="inlineStr"/>
-      <c r="AN120" t="inlineStr"/>
       <c r="AO120" t="n">
         <v>0</v>
       </c>
@@ -19869,7 +19121,6 @@
       <c r="G121" t="n">
         <v>2</v>
       </c>
-      <c r="H121" t="inlineStr"/>
       <c r="I121" t="n">
         <v>3</v>
       </c>
@@ -19947,7 +19198,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z121" t="inlineStr"/>
       <c r="AA121" t="n">
         <v>0</v>
       </c>
@@ -19984,8 +19234,6 @@
       <c r="AL121" t="n">
         <v>0</v>
       </c>
-      <c r="AM121" t="inlineStr"/>
-      <c r="AN121" t="inlineStr"/>
       <c r="AO121" t="n">
         <v>0</v>
       </c>
@@ -20124,7 +19372,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z122" t="inlineStr"/>
       <c r="AA122" t="n">
         <v>0</v>
       </c>
@@ -20161,8 +19408,6 @@
       <c r="AL122" t="n">
         <v>0</v>
       </c>
-      <c r="AM122" t="inlineStr"/>
-      <c r="AN122" t="inlineStr"/>
       <c r="AO122" t="n">
         <v>0</v>
       </c>
@@ -20183,7 +19428,6 @@
           <t>Construction of Group Hand Washing</t>
         </is>
       </c>
-      <c r="AU122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -20297,7 +19541,6 @@
           <t>CHUMA-ASI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z123" t="inlineStr"/>
       <c r="AA123" t="n">
         <v>0</v>
       </c>
@@ -20334,8 +19577,6 @@
       <c r="AL123" t="n">
         <v>0</v>
       </c>
-      <c r="AM123" t="inlineStr"/>
-      <c r="AN123" t="inlineStr"/>
       <c r="AO123" t="n">
         <v>0</v>
       </c>
@@ -20474,7 +19715,6 @@
           <t>ARMCORE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z124" t="inlineStr"/>
       <c r="AA124" t="n">
         <v>0</v>
       </c>
@@ -20511,8 +19751,6 @@
       <c r="AL124" t="n">
         <v>0</v>
       </c>
-      <c r="AM124" t="inlineStr"/>
-      <c r="AN124" t="inlineStr"/>
       <c r="AO124" t="n">
         <v>0</v>
       </c>
@@ -20651,7 +19889,6 @@
           <t>CHUMA-ASI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z125" t="inlineStr"/>
       <c r="AA125" t="n">
         <v>0</v>
       </c>
@@ -20688,8 +19925,6 @@
       <c r="AL125" t="n">
         <v>0</v>
       </c>
-      <c r="AM125" t="inlineStr"/>
-      <c r="AN125" t="inlineStr"/>
       <c r="AO125" t="n">
         <v>0</v>
       </c>
@@ -20828,7 +20063,6 @@
           <t>CHUMA-ASI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z126" t="inlineStr"/>
       <c r="AA126" t="n">
         <v>0</v>
       </c>
@@ -20865,8 +20099,6 @@
       <c r="AL126" t="n">
         <v>0</v>
       </c>
-      <c r="AM126" t="inlineStr"/>
-      <c r="AN126" t="inlineStr"/>
       <c r="AO126" t="n">
         <v>0</v>
       </c>
@@ -21005,7 +20237,6 @@
           <t>BANGYAN 3D CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z127" t="inlineStr"/>
       <c r="AA127" t="n">
         <v>0</v>
       </c>
@@ -21042,8 +20273,6 @@
       <c r="AL127" t="n">
         <v>0</v>
       </c>
-      <c r="AM127" t="inlineStr"/>
-      <c r="AN127" t="inlineStr"/>
       <c r="AO127" t="n">
         <v>0</v>
       </c>
@@ -21182,7 +20411,6 @@
           <t>ARMCORE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z128" t="inlineStr"/>
       <c r="AA128" t="n">
         <v>0</v>
       </c>
@@ -21219,8 +20447,6 @@
       <c r="AL128" t="n">
         <v>0</v>
       </c>
-      <c r="AM128" t="inlineStr"/>
-      <c r="AN128" t="inlineStr"/>
       <c r="AO128" t="n">
         <v>0</v>
       </c>
@@ -21359,7 +20585,6 @@
           <t>CHUMA-ASI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z129" t="inlineStr"/>
       <c r="AA129" t="n">
         <v>0</v>
       </c>
@@ -21396,8 +20621,6 @@
       <c r="AL129" t="n">
         <v>0</v>
       </c>
-      <c r="AM129" t="inlineStr"/>
-      <c r="AN129" t="inlineStr"/>
       <c r="AO129" t="n">
         <v>0</v>
       </c>
@@ -21421,6 +20644,88 @@
       <c r="AU129" t="inlineStr">
         <is>
           <t>Construction</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation sqref="AV2:AV129" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+    <dataValidation sqref="AW2:AW129" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+    <dataValidation sqref="AX2:AX129" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+    <dataValidation sqref="AY2:AY129" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>

--- a/Filtered_By_Region/CAR/CAR_HEALTH.xlsx
+++ b/Filtered_By_Region/CAR/CAR_HEALTH.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z129"/>
+  <dimension ref="A1:AA129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,6 +569,11 @@
           <t>Other Remarks</t>
         </is>
       </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -685,7 +691,6 @@
           <t>SEMBRI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -753,10 +758,6 @@
       <c r="O3" t="n">
         <v>0</v>
       </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
           <t>September 17,2024</t>
@@ -777,13 +778,11 @@
           <t>October 28,2024</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr">
         <is>
           <t>HighLand Construction Services</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -856,7 +855,6 @@
           <t>June 11, 2025</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
           <t>SHFP-2024-01</t>
@@ -897,7 +895,6 @@
           <t>CE-CE CONSTRUCTION SERVICES</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -975,7 +972,6 @@
           <t>January 22,2025</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr">
         <is>
           <t>2024-01</t>
@@ -1011,7 +1007,6 @@
           <t>Habiling Construction</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1084,7 +1079,6 @@
           <t>November 12, 2024</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
           <t>SCHOOL CLINIC 2024-CAR-KALINGA-001</t>
@@ -1125,7 +1119,6 @@
           <t>EDEJUN CONSTRUCTION SERVICES</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1198,7 +1191,6 @@
           <t>March 2, 2025</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
         <is>
           <t>INFRA 2023-007</t>
@@ -1361,7 +1353,6 @@
           <t>Northpine Construction</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1425,23 +1416,14 @@
       <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P9" s="2" t="n">
+      <c r="P9" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
           <t>BAJE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1505,23 +1487,14 @@
       <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P10" s="2" t="n">
+      <c r="P10" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
           <t>BAJE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1585,23 +1558,14 @@
       <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="P11" s="2" t="n">
+      <c r="P11" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr">
         <is>
           <t>BAJE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1665,23 +1629,14 @@
       <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P12" s="2" t="n">
+      <c r="P12" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr">
         <is>
           <t>BAJE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1745,23 +1700,14 @@
       <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P13" s="2" t="n">
+      <c r="P13" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr">
         <is>
           <t>BAJE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1825,23 +1771,14 @@
       <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="P14" s="2" t="n">
+      <c r="P14" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr">
         <is>
           <t>BAJE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1905,23 +1842,14 @@
       <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="P15" s="2" t="n">
+      <c r="P15" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1985,23 +1913,14 @@
       <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P16" s="2" t="n">
+      <c r="P16" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2065,23 +1984,14 @@
       <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P17" s="2" t="n">
+      <c r="P17" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2145,23 +2055,14 @@
       <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P18" s="2" t="n">
+      <c r="P18" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2225,23 +2126,14 @@
       <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="P19" s="2" t="n">
+      <c r="P19" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2305,23 +2197,14 @@
       <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="P20" s="2" t="n">
+      <c r="P20" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr">
         <is>
           <t>BAJE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2385,23 +2268,14 @@
       <c r="O21" t="n">
         <v>1</v>
       </c>
-      <c r="P21" s="2" t="n">
+      <c r="P21" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr">
         <is>
           <t>BAJE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2465,23 +2339,14 @@
       <c r="O22" t="n">
         <v>1</v>
       </c>
-      <c r="P22" s="2" t="n">
+      <c r="P22" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr">
         <is>
           <t>BAJE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2545,23 +2410,14 @@
       <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P23" s="2" t="n">
+      <c r="P23" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr">
         <is>
           <t>BAJE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2625,23 +2481,14 @@
       <c r="O24" t="n">
         <v>1</v>
       </c>
-      <c r="P24" s="2" t="n">
+      <c r="P24" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2705,23 +2552,14 @@
       <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="P25" s="2" t="n">
+      <c r="P25" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2785,23 +2623,14 @@
       <c r="O26" t="n">
         <v>1</v>
       </c>
-      <c r="P26" s="2" t="n">
+      <c r="P26" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2865,23 +2694,14 @@
       <c r="O27" t="n">
         <v>1</v>
       </c>
-      <c r="P27" s="2" t="n">
+      <c r="P27" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2945,23 +2765,14 @@
       <c r="O28" t="n">
         <v>1</v>
       </c>
-      <c r="P28" s="2" t="n">
+      <c r="P28" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3025,23 +2836,14 @@
       <c r="O29" t="n">
         <v>1</v>
       </c>
-      <c r="P29" s="2" t="n">
+      <c r="P29" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3105,23 +2907,14 @@
       <c r="O30" t="n">
         <v>1</v>
       </c>
-      <c r="P30" s="2" t="n">
+      <c r="P30" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3185,23 +2978,14 @@
       <c r="O31" t="n">
         <v>1</v>
       </c>
-      <c r="P31" s="2" t="n">
+      <c r="P31" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3265,23 +3049,14 @@
       <c r="O32" t="n">
         <v>1</v>
       </c>
-      <c r="P32" s="2" t="n">
+      <c r="P32" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3345,23 +3120,14 @@
       <c r="O33" t="n">
         <v>1</v>
       </c>
-      <c r="P33" s="2" t="n">
+      <c r="P33" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3425,23 +3191,14 @@
       <c r="O34" t="n">
         <v>1</v>
       </c>
-      <c r="P34" s="2" t="n">
+      <c r="P34" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3505,23 +3262,14 @@
       <c r="O35" t="n">
         <v>1</v>
       </c>
-      <c r="P35" s="2" t="n">
+      <c r="P35" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3555,7 +3303,6 @@
       <c r="G36" t="n">
         <v>0</v>
       </c>
-      <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
         <v>1</v>
       </c>
@@ -3583,23 +3330,14 @@
       <c r="O36" t="n">
         <v>1</v>
       </c>
-      <c r="P36" s="2" t="n">
+      <c r="P36" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3663,23 +3401,14 @@
       <c r="O37" t="n">
         <v>1</v>
       </c>
-      <c r="P37" s="2" t="n">
+      <c r="P37" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3743,23 +3472,14 @@
       <c r="O38" t="n">
         <v>1</v>
       </c>
-      <c r="P38" s="2" t="n">
+      <c r="P38" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3823,23 +3543,14 @@
       <c r="O39" t="n">
         <v>1</v>
       </c>
-      <c r="P39" s="2" t="n">
+      <c r="P39" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3903,23 +3614,14 @@
       <c r="O40" t="n">
         <v>1</v>
       </c>
-      <c r="P40" s="2" t="n">
+      <c r="P40" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3953,7 +3655,6 @@
       <c r="G41" t="n">
         <v>0</v>
       </c>
-      <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
         <v>1</v>
       </c>
@@ -3981,23 +3682,14 @@
       <c r="O41" t="n">
         <v>1</v>
       </c>
-      <c r="P41" s="2" t="n">
+      <c r="P41" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4061,23 +3753,14 @@
       <c r="O42" t="n">
         <v>1</v>
       </c>
-      <c r="P42" s="2" t="n">
+      <c r="P42" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4141,23 +3824,14 @@
       <c r="O43" t="n">
         <v>1</v>
       </c>
-      <c r="P43" s="2" t="n">
+      <c r="P43" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4221,23 +3895,14 @@
       <c r="O44" t="n">
         <v>1</v>
       </c>
-      <c r="P44" s="2" t="n">
+      <c r="P44" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4301,23 +3966,14 @@
       <c r="O45" t="n">
         <v>1</v>
       </c>
-      <c r="P45" s="2" t="n">
+      <c r="P45" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4381,23 +4037,14 @@
       <c r="O46" t="n">
         <v>1</v>
       </c>
-      <c r="P46" s="2" t="n">
+      <c r="P46" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr">
         <is>
           <t>TRAMS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4452,7 +4099,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4461,17 +4107,10 @@
       <c r="O47" t="n">
         <v>1</v>
       </c>
-      <c r="P47" s="2" t="n">
+      <c r="P47" s="3" t="n">
         <v>44924</v>
       </c>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" s="2" t="n">
+      <c r="X47" s="3" t="n">
         <v>44774</v>
       </c>
       <c r="Y47" t="inlineStr">
@@ -4479,7 +4118,6 @@
           <t>PBAJ CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4534,7 +4172,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4543,17 +4180,10 @@
       <c r="O48" t="n">
         <v>1</v>
       </c>
-      <c r="P48" s="2" t="n">
+      <c r="P48" s="3" t="n">
         <v>44924</v>
       </c>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" s="2" t="n">
+      <c r="X48" s="3" t="n">
         <v>44774</v>
       </c>
       <c r="Y48" t="inlineStr">
@@ -4561,7 +4191,6 @@
           <t>PBAJ CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4616,7 +4245,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4625,17 +4253,10 @@
       <c r="O49" t="n">
         <v>1</v>
       </c>
-      <c r="P49" s="2" t="n">
+      <c r="P49" s="3" t="n">
         <v>44924</v>
       </c>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" s="2" t="n">
+      <c r="X49" s="3" t="n">
         <v>44774</v>
       </c>
       <c r="Y49" t="inlineStr">
@@ -4643,7 +4264,6 @@
           <t>PBAJ CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4698,7 +4318,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4707,17 +4326,10 @@
       <c r="O50" t="n">
         <v>1</v>
       </c>
-      <c r="P50" s="2" t="n">
+      <c r="P50" s="3" t="n">
         <v>44924</v>
       </c>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" s="2" t="n">
+      <c r="X50" s="3" t="n">
         <v>44774</v>
       </c>
       <c r="Y50" t="inlineStr">
@@ -4725,7 +4337,6 @@
           <t>PBAJ CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4780,7 +4391,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4789,17 +4399,10 @@
       <c r="O51" t="n">
         <v>1</v>
       </c>
-      <c r="P51" s="2" t="n">
+      <c r="P51" s="3" t="n">
         <v>44924</v>
       </c>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" s="2" t="n">
+      <c r="X51" s="3" t="n">
         <v>44774</v>
       </c>
       <c r="Y51" t="inlineStr">
@@ -4807,7 +4410,6 @@
           <t>PBAJ CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4862,7 +4464,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4871,17 +4472,10 @@
       <c r="O52" t="n">
         <v>1</v>
       </c>
-      <c r="P52" s="2" t="n">
+      <c r="P52" s="3" t="n">
         <v>44924</v>
       </c>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" s="2" t="n">
+      <c r="X52" s="3" t="n">
         <v>44774</v>
       </c>
       <c r="Y52" t="inlineStr">
@@ -4889,7 +4483,6 @@
           <t>PBAJ CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4944,7 +4537,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4953,17 +4545,10 @@
       <c r="O53" t="n">
         <v>1</v>
       </c>
-      <c r="P53" s="2" t="n">
+      <c r="P53" s="3" t="n">
         <v>44924</v>
       </c>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" s="2" t="n">
+      <c r="X53" s="3" t="n">
         <v>44774</v>
       </c>
       <c r="Y53" t="inlineStr">
@@ -4971,7 +4556,6 @@
           <t>PBAJ CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5026,7 +4610,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5035,17 +4618,10 @@
       <c r="O54" t="n">
         <v>1</v>
       </c>
-      <c r="P54" s="2" t="n">
+      <c r="P54" s="3" t="n">
         <v>44924</v>
       </c>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" s="2" t="n">
+      <c r="X54" s="3" t="n">
         <v>44774</v>
       </c>
       <c r="Y54" t="inlineStr">
@@ -5053,7 +4629,6 @@
           <t>PBAJ CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5108,7 +4683,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5117,17 +4691,10 @@
       <c r="O55" t="n">
         <v>1</v>
       </c>
-      <c r="P55" s="2" t="n">
+      <c r="P55" s="3" t="n">
         <v>44924</v>
       </c>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" s="2" t="n">
+      <c r="X55" s="3" t="n">
         <v>44774</v>
       </c>
       <c r="Y55" t="inlineStr">
@@ -5135,7 +4702,6 @@
           <t>PBAJ CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5190,7 +4756,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5199,17 +4764,10 @@
       <c r="O56" t="n">
         <v>1</v>
       </c>
-      <c r="P56" s="2" t="n">
+      <c r="P56" s="3" t="n">
         <v>44924</v>
       </c>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" s="2" t="n">
+      <c r="X56" s="3" t="n">
         <v>44774</v>
       </c>
       <c r="Y56" t="inlineStr">
@@ -5217,7 +4775,6 @@
           <t>PBAJ CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5272,7 +4829,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5281,17 +4837,10 @@
       <c r="O57" t="n">
         <v>1</v>
       </c>
-      <c r="P57" s="2" t="n">
+      <c r="P57" s="3" t="n">
         <v>44924</v>
       </c>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" s="2" t="n">
+      <c r="X57" s="3" t="n">
         <v>44774</v>
       </c>
       <c r="Y57" t="inlineStr">
@@ -5299,7 +4848,6 @@
           <t>PBAJ CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5365,19 +4913,9 @@
       <c r="O58" t="n">
         <v>1</v>
       </c>
-      <c r="P58" s="2" t="n">
+      <c r="P58" s="3" t="n">
         <v>44856</v>
       </c>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5443,19 +4981,9 @@
       <c r="O59" t="n">
         <v>1</v>
       </c>
-      <c r="P59" s="2" t="n">
+      <c r="P59" s="3" t="n">
         <v>44900</v>
       </c>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5521,19 +5049,9 @@
       <c r="O60" t="n">
         <v>1</v>
       </c>
-      <c r="P60" s="2" t="n">
+      <c r="P60" s="3" t="n">
         <v>44885</v>
       </c>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5599,19 +5117,9 @@
       <c r="O61" t="n">
         <v>1</v>
       </c>
-      <c r="P61" s="2" t="n">
+      <c r="P61" s="3" t="n">
         <v>44960</v>
       </c>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5677,19 +5185,9 @@
       <c r="O62" t="n">
         <v>1</v>
       </c>
-      <c r="P62" s="2" t="n">
+      <c r="P62" s="3" t="n">
         <v>44905</v>
       </c>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5755,19 +5253,9 @@
       <c r="O63" t="n">
         <v>1</v>
       </c>
-      <c r="P63" s="2" t="n">
+      <c r="P63" s="3" t="n">
         <v>44920</v>
       </c>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5820,7 +5308,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5829,17 +5316,6 @@
       <c r="O64" t="n">
         <v>1</v>
       </c>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5892,7 +5368,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5901,17 +5376,6 @@
       <c r="O65" t="n">
         <v>1</v>
       </c>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5964,7 +5428,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5973,17 +5436,6 @@
       <c r="O66" t="n">
         <v>1</v>
       </c>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6036,7 +5488,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6045,17 +5496,6 @@
       <c r="O67" t="n">
         <v>1</v>
       </c>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6108,7 +5548,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6117,17 +5556,6 @@
       <c r="O68" t="n">
         <v>1</v>
       </c>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6180,7 +5608,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6189,17 +5616,6 @@
       <c r="O69" t="n">
         <v>1</v>
       </c>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-      <c r="Z69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6252,7 +5668,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6261,17 +5676,6 @@
       <c r="O70" t="n">
         <v>1</v>
       </c>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
-      <c r="Z70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6337,10 +5741,10 @@
       <c r="O71" t="n">
         <v>1</v>
       </c>
-      <c r="P71" s="2" t="n">
+      <c r="P71" s="3" t="n">
         <v>44806</v>
       </c>
-      <c r="Q71" s="2" t="n">
+      <c r="Q71" s="3" t="n">
         <v>44786</v>
       </c>
       <c r="R71" t="inlineStr">
@@ -6348,20 +5752,19 @@
           <t>INF-2022 HFP-010</t>
         </is>
       </c>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" s="2" t="n">
+      <c r="T71" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U71" s="2" t="n">
+      <c r="U71" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V71" s="2" t="n">
+      <c r="V71" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W71" s="2" t="n">
+      <c r="W71" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X71" s="2" t="n">
+      <c r="X71" s="3" t="n">
         <v>44746</v>
       </c>
       <c r="Y71" t="inlineStr">
@@ -6369,7 +5772,6 @@
           <t>MHIGS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6435,29 +5837,27 @@
       <c r="O72" t="n">
         <v>1</v>
       </c>
-      <c r="P72" s="2" t="n">
+      <c r="P72" s="3" t="n">
         <v>44823</v>
       </c>
-      <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr">
         <is>
           <t>INF-2022 HFP-007</t>
         </is>
       </c>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" s="2" t="n">
+      <c r="T72" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U72" s="2" t="n">
+      <c r="U72" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V72" s="2" t="n">
+      <c r="V72" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W72" s="2" t="n">
+      <c r="W72" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X72" s="2" t="n">
+      <c r="X72" s="3" t="n">
         <v>44748</v>
       </c>
       <c r="Y72" t="inlineStr">
@@ -6465,7 +5865,6 @@
           <t>LIVINGSTONE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6501,7 +5900,6 @@
           <t>Lone District</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
         <v>1</v>
       </c>
@@ -6529,29 +5927,27 @@
       <c r="O73" t="n">
         <v>1</v>
       </c>
-      <c r="P73" s="2" t="n">
+      <c r="P73" s="3" t="n">
         <v>44823</v>
       </c>
-      <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr">
         <is>
           <t>INF-2022 HFP-007</t>
         </is>
       </c>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" s="2" t="n">
+      <c r="T73" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U73" s="2" t="n">
+      <c r="U73" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V73" s="2" t="n">
+      <c r="V73" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W73" s="2" t="n">
+      <c r="W73" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X73" s="2" t="n">
+      <c r="X73" s="3" t="n">
         <v>44748</v>
       </c>
       <c r="Y73" t="inlineStr">
@@ -6559,7 +5955,6 @@
           <t>LIVINGSTONE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6625,10 +6020,10 @@
       <c r="O74" t="n">
         <v>1</v>
       </c>
-      <c r="P74" s="2" t="n">
+      <c r="P74" s="3" t="n">
         <v>44808</v>
       </c>
-      <c r="Q74" s="2" t="n">
+      <c r="Q74" s="3" t="n">
         <v>44792</v>
       </c>
       <c r="R74" t="inlineStr">
@@ -6636,20 +6031,19 @@
           <t>INF-2022 HFP-009</t>
         </is>
       </c>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" s="2" t="n">
+      <c r="T74" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U74" s="2" t="n">
+      <c r="U74" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V74" s="2" t="n">
+      <c r="V74" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W74" s="2" t="n">
+      <c r="W74" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X74" s="2" t="n">
+      <c r="X74" s="3" t="n">
         <v>44748</v>
       </c>
       <c r="Y74" t="inlineStr">
@@ -6657,7 +6051,6 @@
           <t>MR-G CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6723,29 +6116,27 @@
       <c r="O75" t="n">
         <v>1</v>
       </c>
-      <c r="P75" s="2" t="n">
+      <c r="P75" s="3" t="n">
         <v>44823</v>
       </c>
-      <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr">
         <is>
           <t>INF-2022 HFP-007</t>
         </is>
       </c>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" s="2" t="n">
+      <c r="T75" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U75" s="2" t="n">
+      <c r="U75" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V75" s="2" t="n">
+      <c r="V75" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W75" s="2" t="n">
+      <c r="W75" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X75" s="2" t="n">
+      <c r="X75" s="3" t="n">
         <v>44748</v>
       </c>
       <c r="Y75" t="inlineStr">
@@ -6753,7 +6144,6 @@
           <t>LIVINGSTONE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6819,29 +6209,27 @@
       <c r="O76" t="n">
         <v>1</v>
       </c>
-      <c r="P76" s="2" t="n">
+      <c r="P76" s="3" t="n">
         <v>44821</v>
       </c>
-      <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr">
         <is>
           <t>INF-2022 HFP-009</t>
         </is>
       </c>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" s="2" t="n">
+      <c r="T76" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U76" s="2" t="n">
+      <c r="U76" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V76" s="2" t="n">
+      <c r="V76" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W76" s="2" t="n">
+      <c r="W76" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X76" s="2" t="n">
+      <c r="X76" s="3" t="n">
         <v>44746</v>
       </c>
       <c r="Y76" t="inlineStr">
@@ -6849,7 +6237,6 @@
           <t>POKLE'S CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6915,10 +6302,10 @@
       <c r="O77" t="n">
         <v>1</v>
       </c>
-      <c r="P77" s="2" t="n">
+      <c r="P77" s="3" t="n">
         <v>44806</v>
       </c>
-      <c r="Q77" s="2" t="n">
+      <c r="Q77" s="3" t="n">
         <v>44786</v>
       </c>
       <c r="R77" t="inlineStr">
@@ -6926,20 +6313,19 @@
           <t>INF-2022 HFP-010</t>
         </is>
       </c>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" s="2" t="n">
+      <c r="T77" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U77" s="2" t="n">
+      <c r="U77" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V77" s="2" t="n">
+      <c r="V77" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W77" s="2" t="n">
+      <c r="W77" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X77" s="2" t="n">
+      <c r="X77" s="3" t="n">
         <v>44746</v>
       </c>
       <c r="Y77" t="inlineStr">
@@ -6947,7 +6333,6 @@
           <t>MHIGS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -7013,29 +6398,27 @@
       <c r="O78" t="n">
         <v>1</v>
       </c>
-      <c r="P78" s="2" t="n">
+      <c r="P78" s="3" t="n">
         <v>44821</v>
       </c>
-      <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr">
         <is>
           <t>INF-2022 HFP-009</t>
         </is>
       </c>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" s="2" t="n">
+      <c r="T78" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U78" s="2" t="n">
+      <c r="U78" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V78" s="2" t="n">
+      <c r="V78" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W78" s="2" t="n">
+      <c r="W78" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X78" s="2" t="n">
+      <c r="X78" s="3" t="n">
         <v>44746</v>
       </c>
       <c r="Y78" t="inlineStr">
@@ -7043,7 +6426,6 @@
           <t>POKLE'S CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -7109,29 +6491,27 @@
       <c r="O79" t="n">
         <v>1</v>
       </c>
-      <c r="P79" s="2" t="n">
+      <c r="P79" s="3" t="n">
         <v>44823</v>
       </c>
-      <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr">
         <is>
           <t>INF-2022 HFP-007</t>
         </is>
       </c>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" s="2" t="n">
+      <c r="T79" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U79" s="2" t="n">
+      <c r="U79" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V79" s="2" t="n">
+      <c r="V79" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W79" s="2" t="n">
+      <c r="W79" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X79" s="2" t="n">
+      <c r="X79" s="3" t="n">
         <v>44748</v>
       </c>
       <c r="Y79" t="inlineStr">
@@ -7139,7 +6519,6 @@
           <t>LIVINGSTONE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -7175,7 +6554,6 @@
           <t>Lone District</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr"/>
       <c r="I80" t="n">
         <v>1</v>
       </c>
@@ -7203,29 +6581,27 @@
       <c r="O80" t="n">
         <v>1</v>
       </c>
-      <c r="P80" s="2" t="n">
+      <c r="P80" s="3" t="n">
         <v>44823</v>
       </c>
-      <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr">
         <is>
           <t>INF-2022 HFP-007</t>
         </is>
       </c>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" s="2" t="n">
+      <c r="T80" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U80" s="2" t="n">
+      <c r="U80" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V80" s="2" t="n">
+      <c r="V80" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W80" s="2" t="n">
+      <c r="W80" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X80" s="2" t="n">
+      <c r="X80" s="3" t="n">
         <v>44748</v>
       </c>
       <c r="Y80" t="inlineStr">
@@ -7233,7 +6609,6 @@
           <t>LIVINGSTONE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -7299,29 +6674,27 @@
       <c r="O81" t="n">
         <v>1</v>
       </c>
-      <c r="P81" s="2" t="n">
+      <c r="P81" s="3" t="n">
         <v>44824</v>
       </c>
-      <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr">
         <is>
           <t>INF-2022 HFP-008</t>
         </is>
       </c>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" s="2" t="n">
+      <c r="T81" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U81" s="2" t="n">
+      <c r="U81" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V81" s="2" t="n">
+      <c r="V81" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W81" s="2" t="n">
+      <c r="W81" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X81" s="2" t="n">
+      <c r="X81" s="3" t="n">
         <v>44749</v>
       </c>
       <c r="Y81" t="inlineStr">
@@ -7329,7 +6702,6 @@
           <t>CNL CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -7395,29 +6767,27 @@
       <c r="O82" t="n">
         <v>1</v>
       </c>
-      <c r="P82" s="2" t="n">
+      <c r="P82" s="3" t="n">
         <v>44824</v>
       </c>
-      <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr">
         <is>
           <t>INF-2022 HFP-008</t>
         </is>
       </c>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" s="2" t="n">
+      <c r="T82" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U82" s="2" t="n">
+      <c r="U82" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V82" s="2" t="n">
+      <c r="V82" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W82" s="2" t="n">
+      <c r="W82" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X82" s="2" t="n">
+      <c r="X82" s="3" t="n">
         <v>44749</v>
       </c>
       <c r="Y82" t="inlineStr">
@@ -7425,7 +6795,6 @@
           <t>CNL CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -7491,10 +6860,10 @@
       <c r="O83" t="n">
         <v>1</v>
       </c>
-      <c r="P83" s="2" t="n">
+      <c r="P83" s="3" t="n">
         <v>44808</v>
       </c>
-      <c r="Q83" s="2" t="n">
+      <c r="Q83" s="3" t="n">
         <v>44781</v>
       </c>
       <c r="R83" t="inlineStr">
@@ -7502,20 +6871,19 @@
           <t>INF-2022 HFP-009</t>
         </is>
       </c>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" s="2" t="n">
+      <c r="T83" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U83" s="2" t="n">
+      <c r="U83" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V83" s="2" t="n">
+      <c r="V83" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W83" s="2" t="n">
+      <c r="W83" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X83" s="2" t="n">
+      <c r="X83" s="3" t="n">
         <v>44748</v>
       </c>
       <c r="Y83" t="inlineStr">
@@ -7523,7 +6891,6 @@
           <t>MR-G CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -7589,10 +6956,10 @@
       <c r="O84" t="n">
         <v>1</v>
       </c>
-      <c r="P84" s="2" t="n">
+      <c r="P84" s="3" t="n">
         <v>44808</v>
       </c>
-      <c r="Q84" s="2" t="n">
+      <c r="Q84" s="3" t="n">
         <v>44806</v>
       </c>
       <c r="R84" t="inlineStr">
@@ -7600,20 +6967,19 @@
           <t>INF-2022 HFP-009</t>
         </is>
       </c>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" s="2" t="n">
+      <c r="T84" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U84" s="2" t="n">
+      <c r="U84" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V84" s="2" t="n">
+      <c r="V84" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W84" s="2" t="n">
+      <c r="W84" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X84" s="2" t="n">
+      <c r="X84" s="3" t="n">
         <v>44748</v>
       </c>
       <c r="Y84" t="inlineStr">
@@ -7621,7 +6987,6 @@
           <t>MR-G CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -7687,29 +7052,27 @@
       <c r="O85" t="n">
         <v>1</v>
       </c>
-      <c r="P85" s="2" t="n">
+      <c r="P85" s="3" t="n">
         <v>44824</v>
       </c>
-      <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr">
         <is>
           <t>INF-2022 HFP-008</t>
         </is>
       </c>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" s="2" t="n">
+      <c r="T85" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U85" s="2" t="n">
+      <c r="U85" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V85" s="2" t="n">
+      <c r="V85" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W85" s="2" t="n">
+      <c r="W85" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X85" s="2" t="n">
+      <c r="X85" s="3" t="n">
         <v>44749</v>
       </c>
       <c r="Y85" t="inlineStr">
@@ -7717,7 +7080,6 @@
           <t>CNL CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7783,10 +7145,10 @@
       <c r="O86" t="n">
         <v>1</v>
       </c>
-      <c r="P86" s="2" t="n">
+      <c r="P86" s="3" t="n">
         <v>44823</v>
       </c>
-      <c r="Q86" s="2" t="n">
+      <c r="Q86" s="3" t="n">
         <v>44819</v>
       </c>
       <c r="R86" t="inlineStr">
@@ -7794,20 +7156,19 @@
           <t>INF-2022 HFP-007</t>
         </is>
       </c>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" s="2" t="n">
+      <c r="T86" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U86" s="2" t="n">
+      <c r="U86" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V86" s="2" t="n">
+      <c r="V86" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W86" s="2" t="n">
+      <c r="W86" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X86" s="2" t="n">
+      <c r="X86" s="3" t="n">
         <v>44748</v>
       </c>
       <c r="Y86" t="inlineStr">
@@ -7815,7 +7176,6 @@
           <t>LIVINGSTONE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7881,10 +7241,10 @@
       <c r="O87" t="n">
         <v>1</v>
       </c>
-      <c r="P87" s="2" t="n">
+      <c r="P87" s="3" t="n">
         <v>44806</v>
       </c>
-      <c r="Q87" s="2" t="n">
+      <c r="Q87" s="3" t="n">
         <v>44786</v>
       </c>
       <c r="R87" t="inlineStr">
@@ -7892,20 +7252,19 @@
           <t>INF-2022 HFP-010</t>
         </is>
       </c>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" s="2" t="n">
+      <c r="T87" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U87" s="2" t="n">
+      <c r="U87" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V87" s="2" t="n">
+      <c r="V87" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W87" s="2" t="n">
+      <c r="W87" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X87" s="2" t="n">
+      <c r="X87" s="3" t="n">
         <v>44746</v>
       </c>
       <c r="Y87" t="inlineStr">
@@ -7913,7 +7272,6 @@
           <t>MHIGS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -7979,10 +7337,10 @@
       <c r="O88" t="n">
         <v>1</v>
       </c>
-      <c r="P88" s="2" t="n">
+      <c r="P88" s="3" t="n">
         <v>44806</v>
       </c>
-      <c r="Q88" s="2" t="n">
+      <c r="Q88" s="3" t="n">
         <v>44786</v>
       </c>
       <c r="R88" t="inlineStr">
@@ -7990,20 +7348,19 @@
           <t>INF-2022 HFP-010</t>
         </is>
       </c>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" s="2" t="n">
+      <c r="T88" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U88" s="2" t="n">
+      <c r="U88" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V88" s="2" t="n">
+      <c r="V88" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W88" s="2" t="n">
+      <c r="W88" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X88" s="2" t="n">
+      <c r="X88" s="3" t="n">
         <v>44746</v>
       </c>
       <c r="Y88" t="inlineStr">
@@ -8011,7 +7368,6 @@
           <t>MHIGS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -8077,10 +7433,10 @@
       <c r="O89" t="n">
         <v>1</v>
       </c>
-      <c r="P89" s="2" t="n">
+      <c r="P89" s="3" t="n">
         <v>44806</v>
       </c>
-      <c r="Q89" s="2" t="n">
+      <c r="Q89" s="3" t="n">
         <v>44786</v>
       </c>
       <c r="R89" t="inlineStr">
@@ -8088,20 +7444,19 @@
           <t>INF-2022 HFP-010</t>
         </is>
       </c>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" s="2" t="n">
+      <c r="T89" s="3" t="n">
         <v>44616</v>
       </c>
-      <c r="U89" s="2" t="n">
+      <c r="U89" s="3" t="n">
         <v>44623</v>
       </c>
-      <c r="V89" s="2" t="n">
+      <c r="V89" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="W89" s="2" t="n">
+      <c r="W89" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="X89" s="2" t="n">
+      <c r="X89" s="3" t="n">
         <v>44746</v>
       </c>
       <c r="Y89" t="inlineStr">
@@ -8109,7 +7464,6 @@
           <t>MHIGS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -8163,7 +7517,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8172,17 +7525,6 @@
       <c r="O90" t="n">
         <v>1</v>
       </c>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr"/>
-      <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
-      <c r="Z90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -8236,7 +7578,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8245,17 +7586,6 @@
       <c r="O91" t="n">
         <v>1</v>
       </c>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr"/>
-      <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
-      <c r="Z91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -8308,7 +7638,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8317,17 +7646,6 @@
       <c r="O92" t="n">
         <v>1</v>
       </c>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr"/>
-      <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr"/>
-      <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr"/>
-      <c r="Z92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -8380,7 +7698,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8389,17 +7706,6 @@
       <c r="O93" t="n">
         <v>1</v>
       </c>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr"/>
-      <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
-      <c r="Z93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -8463,21 +7769,16 @@
       <c r="O94" t="n">
         <v>1</v>
       </c>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
-      <c r="T94" s="2" t="n">
+      <c r="T94" s="3" t="n">
         <v>44719</v>
       </c>
-      <c r="U94" s="2" t="n">
+      <c r="U94" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="V94" s="2" t="n">
+      <c r="V94" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="W94" t="inlineStr"/>
-      <c r="X94" s="2" t="n">
+      <c r="X94" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y94" t="inlineStr">
@@ -8485,7 +7786,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -8519,7 +7819,6 @@
       <c r="G95" t="n">
         <v>2</v>
       </c>
-      <c r="H95" t="inlineStr"/>
       <c r="I95" t="n">
         <v>3</v>
       </c>
@@ -8547,21 +7846,16 @@
       <c r="O95" t="n">
         <v>1</v>
       </c>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
-      <c r="T95" s="2" t="n">
+      <c r="T95" s="3" t="n">
         <v>44719</v>
       </c>
-      <c r="U95" s="2" t="n">
+      <c r="U95" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="V95" s="2" t="n">
+      <c r="V95" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" s="2" t="n">
+      <c r="X95" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y95" t="inlineStr">
@@ -8569,7 +7863,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -8633,21 +7926,16 @@
       <c r="O96" t="n">
         <v>1</v>
       </c>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
-      <c r="T96" s="2" t="n">
+      <c r="T96" s="3" t="n">
         <v>44719</v>
       </c>
-      <c r="U96" s="2" t="n">
+      <c r="U96" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="V96" s="2" t="n">
+      <c r="V96" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" s="2" t="n">
+      <c r="X96" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y96" t="inlineStr">
@@ -8655,7 +7943,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -8719,21 +8006,16 @@
       <c r="O97" t="n">
         <v>1</v>
       </c>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
-      <c r="T97" s="2" t="n">
+      <c r="T97" s="3" t="n">
         <v>44719</v>
       </c>
-      <c r="U97" s="2" t="n">
+      <c r="U97" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="V97" s="2" t="n">
+      <c r="V97" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" s="2" t="n">
+      <c r="X97" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y97" t="inlineStr">
@@ -8741,7 +8023,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -8775,7 +8056,6 @@
       <c r="G98" t="n">
         <v>2</v>
       </c>
-      <c r="H98" t="inlineStr"/>
       <c r="I98" t="n">
         <v>3</v>
       </c>
@@ -8803,21 +8083,16 @@
       <c r="O98" t="n">
         <v>1</v>
       </c>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr"/>
-      <c r="T98" s="2" t="n">
+      <c r="T98" s="3" t="n">
         <v>44719</v>
       </c>
-      <c r="U98" s="2" t="n">
+      <c r="U98" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="V98" s="2" t="n">
+      <c r="V98" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" s="2" t="n">
+      <c r="X98" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y98" t="inlineStr">
@@ -8825,7 +8100,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -8889,21 +8163,16 @@
       <c r="O99" t="n">
         <v>1</v>
       </c>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
-      <c r="T99" s="2" t="n">
+      <c r="T99" s="3" t="n">
         <v>44719</v>
       </c>
-      <c r="U99" s="2" t="n">
+      <c r="U99" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="V99" s="2" t="n">
+      <c r="V99" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" s="2" t="n">
+      <c r="X99" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y99" t="inlineStr">
@@ -8911,7 +8180,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -8975,21 +8243,16 @@
       <c r="O100" t="n">
         <v>1</v>
       </c>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr"/>
-      <c r="T100" s="2" t="n">
+      <c r="T100" s="3" t="n">
         <v>44719</v>
       </c>
-      <c r="U100" s="2" t="n">
+      <c r="U100" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="V100" s="2" t="n">
+      <c r="V100" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" s="2" t="n">
+      <c r="X100" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y100" t="inlineStr">
@@ -8997,7 +8260,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -9031,7 +8293,6 @@
       <c r="G101" t="n">
         <v>2</v>
       </c>
-      <c r="H101" t="inlineStr"/>
       <c r="I101" t="n">
         <v>3</v>
       </c>
@@ -9059,21 +8320,16 @@
       <c r="O101" t="n">
         <v>1</v>
       </c>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="inlineStr"/>
-      <c r="T101" s="2" t="n">
+      <c r="T101" s="3" t="n">
         <v>44719</v>
       </c>
-      <c r="U101" s="2" t="n">
+      <c r="U101" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="V101" s="2" t="n">
+      <c r="V101" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="W101" t="inlineStr"/>
-      <c r="X101" s="2" t="n">
+      <c r="X101" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y101" t="inlineStr">
@@ -9081,7 +8337,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -9145,21 +8400,16 @@
       <c r="O102" t="n">
         <v>1</v>
       </c>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="inlineStr"/>
-      <c r="T102" s="2" t="n">
+      <c r="T102" s="3" t="n">
         <v>44719</v>
       </c>
-      <c r="U102" s="2" t="n">
+      <c r="U102" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="V102" s="2" t="n">
+      <c r="V102" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="W102" t="inlineStr"/>
-      <c r="X102" s="2" t="n">
+      <c r="X102" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y102" t="inlineStr">
@@ -9167,7 +8417,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -9231,21 +8480,16 @@
       <c r="O103" t="n">
         <v>1</v>
       </c>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr"/>
-      <c r="T103" s="2" t="n">
+      <c r="T103" s="3" t="n">
         <v>44719</v>
       </c>
-      <c r="U103" s="2" t="n">
+      <c r="U103" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="V103" s="2" t="n">
+      <c r="V103" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="W103" t="inlineStr"/>
-      <c r="X103" s="2" t="n">
+      <c r="X103" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y103" t="inlineStr">
@@ -9253,7 +8497,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -9317,21 +8560,16 @@
       <c r="O104" t="n">
         <v>1</v>
       </c>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="inlineStr"/>
-      <c r="T104" s="2" t="n">
+      <c r="T104" s="3" t="n">
         <v>44719</v>
       </c>
-      <c r="U104" s="2" t="n">
+      <c r="U104" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="V104" s="2" t="n">
+      <c r="V104" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="W104" t="inlineStr"/>
-      <c r="X104" s="2" t="n">
+      <c r="X104" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y104" t="inlineStr">
@@ -9339,7 +8577,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -9373,7 +8610,6 @@
       <c r="G105" t="n">
         <v>2</v>
       </c>
-      <c r="H105" t="inlineStr"/>
       <c r="I105" t="n">
         <v>3</v>
       </c>
@@ -9401,21 +8637,16 @@
       <c r="O105" t="n">
         <v>1</v>
       </c>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="inlineStr"/>
-      <c r="T105" s="2" t="n">
+      <c r="T105" s="3" t="n">
         <v>44719</v>
       </c>
-      <c r="U105" s="2" t="n">
+      <c r="U105" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="V105" s="2" t="n">
+      <c r="V105" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="W105" t="inlineStr"/>
-      <c r="X105" s="2" t="n">
+      <c r="X105" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y105" t="inlineStr">
@@ -9423,7 +8654,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -9487,21 +8717,16 @@
       <c r="O106" t="n">
         <v>1</v>
       </c>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="inlineStr"/>
-      <c r="T106" s="2" t="n">
+      <c r="T106" s="3" t="n">
         <v>44719</v>
       </c>
-      <c r="U106" s="2" t="n">
+      <c r="U106" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="V106" s="2" t="n">
+      <c r="V106" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="W106" t="inlineStr"/>
-      <c r="X106" s="2" t="n">
+      <c r="X106" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y106" t="inlineStr">
@@ -9509,7 +8734,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -9543,7 +8767,6 @@
       <c r="G107" t="n">
         <v>2</v>
       </c>
-      <c r="H107" t="inlineStr"/>
       <c r="I107" t="n">
         <v>3</v>
       </c>
@@ -9571,23 +8794,19 @@
       <c r="O107" t="n">
         <v>1</v>
       </c>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="inlineStr"/>
-      <c r="T107" s="2" t="n">
+      <c r="T107" s="3" t="n">
         <v>44740</v>
       </c>
-      <c r="U107" s="2" t="n">
+      <c r="U107" s="3" t="n">
         <v>44747</v>
       </c>
-      <c r="V107" s="2" t="n">
+      <c r="V107" s="3" t="n">
         <v>44761</v>
       </c>
-      <c r="W107" s="2" t="n">
+      <c r="W107" s="3" t="n">
         <v>44770</v>
       </c>
-      <c r="X107" s="2" t="n">
+      <c r="X107" s="3" t="n">
         <v>44831</v>
       </c>
       <c r="Y107" t="inlineStr">
@@ -9595,7 +8814,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -9659,21 +8877,16 @@
       <c r="O108" t="n">
         <v>1</v>
       </c>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="inlineStr"/>
-      <c r="T108" s="2" t="n">
+      <c r="T108" s="3" t="n">
         <v>44719</v>
       </c>
-      <c r="U108" s="2" t="n">
+      <c r="U108" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="V108" s="2" t="n">
+      <c r="V108" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="W108" t="inlineStr"/>
-      <c r="X108" s="2" t="n">
+      <c r="X108" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y108" t="inlineStr">
@@ -9681,7 +8894,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -9715,7 +8927,6 @@
       <c r="G109" t="n">
         <v>2</v>
       </c>
-      <c r="H109" t="inlineStr"/>
       <c r="I109" t="n">
         <v>3</v>
       </c>
@@ -9743,21 +8954,16 @@
       <c r="O109" t="n">
         <v>1</v>
       </c>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="inlineStr"/>
-      <c r="T109" s="2" t="n">
+      <c r="T109" s="3" t="n">
         <v>44719</v>
       </c>
-      <c r="U109" s="2" t="n">
+      <c r="U109" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="V109" s="2" t="n">
+      <c r="V109" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="W109" t="inlineStr"/>
-      <c r="X109" s="2" t="n">
+      <c r="X109" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y109" t="inlineStr">
@@ -9765,7 +8971,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -9829,21 +9034,16 @@
       <c r="O110" t="n">
         <v>1</v>
       </c>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="inlineStr"/>
-      <c r="T110" s="2" t="n">
+      <c r="T110" s="3" t="n">
         <v>44719</v>
       </c>
-      <c r="U110" s="2" t="n">
+      <c r="U110" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="V110" s="2" t="n">
+      <c r="V110" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="W110" t="inlineStr"/>
-      <c r="X110" s="2" t="n">
+      <c r="X110" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y110" t="inlineStr">
@@ -9851,7 +9051,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -9885,7 +9084,6 @@
       <c r="G111" t="n">
         <v>2</v>
       </c>
-      <c r="H111" t="inlineStr"/>
       <c r="I111" t="n">
         <v>3</v>
       </c>
@@ -9913,21 +9111,16 @@
       <c r="O111" t="n">
         <v>1</v>
       </c>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="inlineStr"/>
-      <c r="T111" s="2" t="n">
+      <c r="T111" s="3" t="n">
         <v>44719</v>
       </c>
-      <c r="U111" s="2" t="n">
+      <c r="U111" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="V111" s="2" t="n">
+      <c r="V111" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="W111" t="inlineStr"/>
-      <c r="X111" s="2" t="n">
+      <c r="X111" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y111" t="inlineStr">
@@ -9935,7 +9128,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -9999,21 +9191,16 @@
       <c r="O112" t="n">
         <v>1</v>
       </c>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="inlineStr"/>
-      <c r="T112" s="2" t="n">
+      <c r="T112" s="3" t="n">
         <v>44719</v>
       </c>
-      <c r="U112" s="2" t="n">
+      <c r="U112" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="V112" s="2" t="n">
+      <c r="V112" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="W112" t="inlineStr"/>
-      <c r="X112" s="2" t="n">
+      <c r="X112" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y112" t="inlineStr">
@@ -10021,7 +9208,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -10085,21 +9271,16 @@
       <c r="O113" t="n">
         <v>1</v>
       </c>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="inlineStr"/>
-      <c r="T113" s="2" t="n">
+      <c r="T113" s="3" t="n">
         <v>44719</v>
       </c>
-      <c r="U113" s="2" t="n">
+      <c r="U113" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="V113" s="2" t="n">
+      <c r="V113" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="W113" t="inlineStr"/>
-      <c r="X113" s="2" t="n">
+      <c r="X113" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y113" t="inlineStr">
@@ -10107,7 +9288,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -10141,7 +9321,6 @@
       <c r="G114" t="n">
         <v>2</v>
       </c>
-      <c r="H114" t="inlineStr"/>
       <c r="I114" t="n">
         <v>3</v>
       </c>
@@ -10169,21 +9348,16 @@
       <c r="O114" t="n">
         <v>1</v>
       </c>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="inlineStr"/>
-      <c r="T114" s="2" t="n">
+      <c r="T114" s="3" t="n">
         <v>44719</v>
       </c>
-      <c r="U114" s="2" t="n">
+      <c r="U114" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="V114" s="2" t="n">
+      <c r="V114" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="W114" t="inlineStr"/>
-      <c r="X114" s="2" t="n">
+      <c r="X114" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y114" t="inlineStr">
@@ -10191,7 +9365,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -10255,21 +9428,16 @@
       <c r="O115" t="n">
         <v>1</v>
       </c>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="inlineStr"/>
-      <c r="T115" s="2" t="n">
+      <c r="T115" s="3" t="n">
         <v>44719</v>
       </c>
-      <c r="U115" s="2" t="n">
+      <c r="U115" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="V115" s="2" t="n">
+      <c r="V115" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="W115" t="inlineStr"/>
-      <c r="X115" s="2" t="n">
+      <c r="X115" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y115" t="inlineStr">
@@ -10277,7 +9445,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -10341,21 +9508,16 @@
       <c r="O116" t="n">
         <v>1</v>
       </c>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="inlineStr"/>
-      <c r="T116" s="2" t="n">
+      <c r="T116" s="3" t="n">
         <v>44719</v>
       </c>
-      <c r="U116" s="2" t="n">
+      <c r="U116" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="V116" s="2" t="n">
+      <c r="V116" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="W116" t="inlineStr"/>
-      <c r="X116" s="2" t="n">
+      <c r="X116" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y116" t="inlineStr">
@@ -10363,7 +9525,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -10427,21 +9588,16 @@
       <c r="O117" t="n">
         <v>1</v>
       </c>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="inlineStr"/>
-      <c r="T117" s="2" t="n">
+      <c r="T117" s="3" t="n">
         <v>44719</v>
       </c>
-      <c r="U117" s="2" t="n">
+      <c r="U117" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="V117" s="2" t="n">
+      <c r="V117" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="W117" t="inlineStr"/>
-      <c r="X117" s="2" t="n">
+      <c r="X117" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y117" t="inlineStr">
@@ -10449,7 +9605,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -10513,21 +9668,16 @@
       <c r="O118" t="n">
         <v>1</v>
       </c>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="inlineStr"/>
-      <c r="T118" s="2" t="n">
+      <c r="T118" s="3" t="n">
         <v>44719</v>
       </c>
-      <c r="U118" s="2" t="n">
+      <c r="U118" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="V118" s="2" t="n">
+      <c r="V118" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="W118" t="inlineStr"/>
-      <c r="X118" s="2" t="n">
+      <c r="X118" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y118" t="inlineStr">
@@ -10535,7 +9685,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -10599,23 +9748,19 @@
       <c r="O119" t="n">
         <v>1</v>
       </c>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="inlineStr"/>
-      <c r="T119" s="2" t="n">
+      <c r="T119" s="3" t="n">
         <v>44740</v>
       </c>
-      <c r="U119" s="2" t="n">
+      <c r="U119" s="3" t="n">
         <v>44747</v>
       </c>
-      <c r="V119" s="2" t="n">
+      <c r="V119" s="3" t="n">
         <v>44761</v>
       </c>
-      <c r="W119" s="2" t="n">
+      <c r="W119" s="3" t="n">
         <v>44770</v>
       </c>
-      <c r="X119" s="2" t="n">
+      <c r="X119" s="3" t="n">
         <v>44831</v>
       </c>
       <c r="Y119" t="inlineStr">
@@ -10623,7 +9768,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -10687,21 +9831,16 @@
       <c r="O120" t="n">
         <v>1</v>
       </c>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="inlineStr"/>
-      <c r="T120" s="2" t="n">
+      <c r="T120" s="3" t="n">
         <v>44719</v>
       </c>
-      <c r="U120" s="2" t="n">
+      <c r="U120" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="V120" s="2" t="n">
+      <c r="V120" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="W120" t="inlineStr"/>
-      <c r="X120" s="2" t="n">
+      <c r="X120" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y120" t="inlineStr">
@@ -10709,7 +9848,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -10743,7 +9881,6 @@
       <c r="G121" t="n">
         <v>2</v>
       </c>
-      <c r="H121" t="inlineStr"/>
       <c r="I121" t="n">
         <v>3</v>
       </c>
@@ -10771,21 +9908,16 @@
       <c r="O121" t="n">
         <v>1</v>
       </c>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="inlineStr"/>
-      <c r="T121" s="2" t="n">
+      <c r="T121" s="3" t="n">
         <v>44719</v>
       </c>
-      <c r="U121" s="2" t="n">
+      <c r="U121" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="V121" s="2" t="n">
+      <c r="V121" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="W121" t="inlineStr"/>
-      <c r="X121" s="2" t="n">
+      <c r="X121" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y121" t="inlineStr">
@@ -10793,7 +9925,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -10857,21 +9988,16 @@
       <c r="O122" t="n">
         <v>1</v>
       </c>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="inlineStr"/>
-      <c r="T122" s="2" t="n">
+      <c r="T122" s="3" t="n">
         <v>44719</v>
       </c>
-      <c r="U122" s="2" t="n">
+      <c r="U122" s="3" t="n">
         <v>44725</v>
       </c>
-      <c r="V122" s="2" t="n">
+      <c r="V122" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="W122" t="inlineStr"/>
-      <c r="X122" s="2" t="n">
+      <c r="X122" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y122" t="inlineStr">
@@ -10879,7 +10005,6 @@
           <t>ECV Construction</t>
         </is>
       </c>
-      <c r="Z122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -10932,7 +10057,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10941,17 +10065,6 @@
       <c r="O123" t="n">
         <v>1</v>
       </c>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="inlineStr"/>
-      <c r="T123" t="inlineStr"/>
-      <c r="U123" t="inlineStr"/>
-      <c r="V123" t="inlineStr"/>
-      <c r="W123" t="inlineStr"/>
-      <c r="X123" t="inlineStr"/>
-      <c r="Y123" t="inlineStr"/>
-      <c r="Z123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -11004,7 +10117,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11013,17 +10125,6 @@
       <c r="O124" t="n">
         <v>1</v>
       </c>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="inlineStr"/>
-      <c r="T124" t="inlineStr"/>
-      <c r="U124" t="inlineStr"/>
-      <c r="V124" t="inlineStr"/>
-      <c r="W124" t="inlineStr"/>
-      <c r="X124" t="inlineStr"/>
-      <c r="Y124" t="inlineStr"/>
-      <c r="Z124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -11076,7 +10177,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11085,17 +10185,6 @@
       <c r="O125" t="n">
         <v>1</v>
       </c>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="inlineStr"/>
-      <c r="T125" t="inlineStr"/>
-      <c r="U125" t="inlineStr"/>
-      <c r="V125" t="inlineStr"/>
-      <c r="W125" t="inlineStr"/>
-      <c r="X125" t="inlineStr"/>
-      <c r="Y125" t="inlineStr"/>
-      <c r="Z125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -11148,7 +10237,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11157,17 +10245,6 @@
       <c r="O126" t="n">
         <v>1</v>
       </c>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="inlineStr"/>
-      <c r="T126" t="inlineStr"/>
-      <c r="U126" t="inlineStr"/>
-      <c r="V126" t="inlineStr"/>
-      <c r="W126" t="inlineStr"/>
-      <c r="X126" t="inlineStr"/>
-      <c r="Y126" t="inlineStr"/>
-      <c r="Z126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -11220,7 +10297,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M127" t="inlineStr"/>
       <c r="N127" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11229,17 +10305,6 @@
       <c r="O127" t="n">
         <v>1</v>
       </c>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="inlineStr"/>
-      <c r="T127" t="inlineStr"/>
-      <c r="U127" t="inlineStr"/>
-      <c r="V127" t="inlineStr"/>
-      <c r="W127" t="inlineStr"/>
-      <c r="X127" t="inlineStr"/>
-      <c r="Y127" t="inlineStr"/>
-      <c r="Z127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -11292,7 +10357,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11301,17 +10365,6 @@
       <c r="O128" t="n">
         <v>1</v>
       </c>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="inlineStr"/>
-      <c r="T128" t="inlineStr"/>
-      <c r="U128" t="inlineStr"/>
-      <c r="V128" t="inlineStr"/>
-      <c r="W128" t="inlineStr"/>
-      <c r="X128" t="inlineStr"/>
-      <c r="Y128" t="inlineStr"/>
-      <c r="Z128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -11364,7 +10417,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11373,17 +10425,79 @@
       <c r="O129" t="n">
         <v>1</v>
       </c>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="inlineStr"/>
-      <c r="T129" t="inlineStr"/>
-      <c r="U129" t="inlineStr"/>
-      <c r="V129" t="inlineStr"/>
-      <c r="W129" t="inlineStr"/>
-      <c r="X129" t="inlineStr"/>
-      <c r="Y129" t="inlineStr"/>
-      <c r="Z129" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AA2:AA129" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Filtered_By_Region/CAR/CAR_HEALTH.xlsx
+++ b/Filtered_By_Region/CAR/CAR_HEALTH.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA129"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Total Physical Target</t>
+          <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Batch</t>
+          <t>BATCH</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -569,7 +569,32 @@
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Reverted</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Not yet started</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Under Procurement</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites On Going</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Completed</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
@@ -612,11 +637,6 @@
       <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>Construction of 1 storey 7m x 9m Medical and Denatl Facilities</t>
@@ -625,11 +645,6 @@
       <c r="K2" t="n">
         <v>2800000</v>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M2" t="n">
         <v>2777723.92</v>
       </c>
@@ -729,11 +744,6 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>Construction of Handwashing Facility,Comfort Room, and clinic</t>
@@ -742,11 +752,6 @@
       <c r="K3" t="n">
         <v>5079441.86</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M3" t="n">
         <v>5023658.56</v>
       </c>
@@ -821,11 +826,6 @@
       <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>Construction of Clinic, Comfort Room, Group Handwashing Facility</t>
@@ -834,11 +834,6 @@
       <c r="K4" t="n">
         <v>4805722.03</v>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M4" t="n">
         <v>4403550.47</v>
       </c>
@@ -933,11 +928,6 @@
       <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>Construction of School Clinic, Toilet, Water System &amp; Group Handwashing Facility</t>
@@ -946,11 +936,6 @@
       <c r="K5" t="n">
         <v>6956039.99</v>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M5" t="n">
         <v>6250490.52</v>
       </c>
@@ -1045,11 +1030,6 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -1058,11 +1038,6 @@
       <c r="K6" t="n">
         <v>4458237.06</v>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M6" t="n">
         <v>4285187.15</v>
       </c>
@@ -1157,11 +1132,6 @@
       <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t xml:space="preserve">Construction of School Clinic, Water and Sanitation Facilities - 3-Seater with Overhead Water Tank, Group Handwashing Facility and Water System (Water Source at Higher Elevation than School Building) </t>
@@ -1170,11 +1140,6 @@
       <c r="K7" t="n">
         <v>21529337.31</v>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M7" t="n">
         <v>21313820.23</v>
       </c>
@@ -1274,11 +1239,6 @@
       <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -1287,11 +1247,6 @@
       <c r="K8" t="n">
         <v>4565251.4</v>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M8" t="n">
         <v>4299998.99</v>
       </c>
@@ -10428,7 +10383,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AA2:AA129" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AF2:AF129" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/CAR/CAR_HEALTH.xlsx
+++ b/Filtered_By_Region/CAR/CAR_HEALTH.xlsx
@@ -490,7 +490,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
